--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384</v>
+        <v>-0.145</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.588</v>
+        <v>28.438</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.522</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.428</v>
+        <v>27.002</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.596</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.489</v>
+        <v>27.802</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.343004765279652</v>
+        <v>29.00700887901833</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.82587702008016</v>
+        <v>29.00700891509422</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.34976693612997</v>
+        <v>29.00700891182438</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31.17640229900108</v>
+        <v>29.00700892122027</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.236930918560816</v>
+        <v>29.00700892120106</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.01873355030488</v>
+        <v>29.00700895968967</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.075774642527239</v>
+        <v>29.00700889649666</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.14065725839805</v>
+        <v>29.00700893374216</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.47689602819766</v>
+        <v>29.00700893210657</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>37.34852528279087</v>
+        <v>29.00700894179175</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.940099128422641</v>
+        <v>29.00700894208601</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.34990515132083</v>
+        <v>29.00700898184664</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.41849561686163</v>
+        <v>29.00700890089383</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.48618309924052</v>
+        <v>29.00700893792393</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.96213310892169</v>
+        <v>29.00700893657145</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>38.80954303566959</v>
+        <v>29.00700894621759</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.51783943059975</v>
+        <v>29.00700894656189</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.91852519085257</v>
+        <v>29.00700898609167</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.33598096592026</v>
+        <v>29.00700888812072</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.43776490429999</v>
+        <v>29.00700892483167</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.91359106692423</v>
+        <v>29.00700892210928</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.76414322044428</v>
+        <v>29.00700893172517</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9.098462307748186</v>
+        <v>29.00700893182437</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.56609769542073</v>
+        <v>29.00700897099721</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.61586425863949</v>
+        <v>29.00700895593999</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>37.74885358209359</v>
+        <v>29.00700896886644</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.98730540224207</v>
+        <v>29.00700896890722</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.19715171536642</v>
+        <v>29.00700900664253</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.21551581215031</v>
+        <v>29.00700900357089</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48.28435135257543</v>
+        <v>29.0070090171204</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.79101598379116</v>
+        <v>29.00700897975865</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.01656185219763</v>
+        <v>29.00700899307381</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17.30817141202347</v>
+        <v>29.00700899091972</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.13911469534889</v>
+        <v>29.00700902990796</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>50.08547119668674</v>
+        <v>29.00700902845296</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>56.22697792963527</v>
+        <v>29.00700904237238</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.50926393475449</v>
+        <v>29.00700898426706</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.70329817414539</v>
+        <v>29.00700899753244</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.98305638843721</v>
+        <v>29.00700899511935</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.78882528708536</v>
+        <v>29.00700903388849</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.88737449170792</v>
+        <v>29.00700903267683</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>57.9900796118336</v>
+        <v>29.00700904653087</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.21315564635772</v>
+        <v>29.00700896769425</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44.42077419604814</v>
+        <v>29.00700898092352</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>15.99131922214776</v>
+        <v>29.00700898050939</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>37.89833476400334</v>
+        <v>29.00700901893718</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49.03824269708619</v>
+        <v>29.00700901629697</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>55.16016824812387</v>
+        <v>29.00700903013234</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.02052647891961</v>
+        <v>29.00700887888866</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.7050231498842</v>
+        <v>29.00700891559663</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.57148306362051</v>
+        <v>29.00700891095483</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.02535856176183</v>
+        <v>29.00700892004301</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.431595725516726</v>
+        <v>29.0070089186181</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.364492539408</v>
+        <v>29.00700895782359</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>11.54717264378248</v>
+        <v>29.0070088955712</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.82142697311836</v>
+        <v>29.0070089334686</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.45800766036072</v>
+        <v>29.00700893034904</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>41.94411628826049</v>
+        <v>29.00700893971381</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.89852187554764</v>
+        <v>29.00700893860932</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.46890556492711</v>
+        <v>29.00700897910703</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.78389597586652</v>
+        <v>29.00700889974743</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.05214014254157</v>
+        <v>29.00700893742394</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.82368711243246</v>
+        <v>29.00700893458416</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>43.28471089655967</v>
+        <v>29.00700894390775</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.37360168818223</v>
+        <v>29.00700894287553</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.9274975341264</v>
+        <v>29.00700898313753</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>10.89143482628985</v>
+        <v>29.00700888738696</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.22421915570187</v>
+        <v>29.00700892473645</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>37.99110242181964</v>
+        <v>29.00700892059312</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.45643913320175</v>
+        <v>29.00700892987894</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.12825933255043</v>
+        <v>29.00700892857535</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>33.77665821767181</v>
+        <v>29.00700896847587</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.59422860951408</v>
+        <v>29.00700895282928</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.07669804885137</v>
+        <v>29.00700896522897</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>14.18483443340036</v>
+        <v>29.00700896635709</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.40942678838083</v>
+        <v>29.00700900478554</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.93192456298971</v>
+        <v>29.00700900061672</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.36903867577833</v>
+        <v>29.00700901365834</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.50423774307389</v>
+        <v>29.0070089756849</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.06069562454263</v>
+        <v>29.00700898845387</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.25185796843621</v>
+        <v>29.00700898752257</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>43.10800871634706</v>
+        <v>29.00700902722607</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>53.5206858154548</v>
+        <v>29.00700902460164</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>59.00947231663378</v>
+        <v>29.00700903798914</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>44.10514702969066</v>
+        <v>29.00700897997629</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>49.63045553009037</v>
+        <v>29.00700899269228</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.81928576163464</v>
+        <v>29.00700899150806</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>44.6444326882683</v>
+        <v>29.0070090309884</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>55.2023095956006</v>
+        <v>29.00700902860487</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60.65198617615306</v>
+        <v>29.0070090419234</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.01149034452394</v>
+        <v>29.00700896388675</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>47.54947482907225</v>
+        <v>29.00700897655601</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.02440540842936</v>
+        <v>29.00700897728166</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.97309047411429</v>
+        <v>29.00700901641398</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>52.57157206752847</v>
+        <v>29.00700901263984</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>58.04151014379245</v>
+        <v>29.00700902593426</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.022651397332133</v>
+        <v>29.00700887771979</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.64819035727289</v>
+        <v>29.00700891443064</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.57407230075381</v>
+        <v>29.00700890990696</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.97951608050735</v>
+        <v>29.00700891897799</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>7.033969563893056</v>
+        <v>29.00700891798217</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.93404752274101</v>
+        <v>29.00700895721256</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.55926157164385</v>
+        <v>29.00700889442827</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.77608564313894</v>
+        <v>29.00700893233028</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.47628230934331</v>
+        <v>29.00700892933207</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.91304300403506</v>
+        <v>29.00700893867959</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.52005279140467</v>
+        <v>29.00700893801482</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.05957506202211</v>
+        <v>29.00700897853918</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>11.80940947186174</v>
+        <v>29.00700889862597</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.02134413790822</v>
+        <v>29.00700893630758</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>38.8569981049903</v>
+        <v>29.00700893358797</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.26890454083127</v>
+        <v>29.00700894289445</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>14.00526106684873</v>
+        <v>29.00700894229889</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.52930310747836</v>
+        <v>29.00700898258781</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>9.890359774656897</v>
+        <v>29.00700888623219</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.16426469710867</v>
+        <v>29.00700892358603</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.99476051978918</v>
+        <v>29.00700891956128</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>40.41052111831473</v>
+        <v>29.00700892882961</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>11.74040455252403</v>
+        <v>29.00700892796258</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>33.35667756422448</v>
+        <v>29.00700896788976</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.28998856905203</v>
+        <v>29.00700895236569</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.71220248218981</v>
+        <v>29.00700896474513</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>13.81887910734729</v>
+        <v>29.00700896598286</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.02945668565781</v>
+        <v>29.00700900444186</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>45.68197247523147</v>
+        <v>29.00700900040384</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.05679703328433</v>
+        <v>29.00700901342646</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.22636403620633</v>
+        <v>29.00700897527036</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.72124227744067</v>
+        <v>29.00700898801848</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>19.90574170910428</v>
+        <v>29.00700898719686</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.75007697112519</v>
+        <v>29.00700902693247</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>53.29808235440038</v>
+        <v>29.00700902444423</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.72316618133533</v>
+        <v>29.00700903781257</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.83860134635292</v>
+        <v>29.00700897957925</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>49.3025342278268</v>
+        <v>29.00700899227425</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>21.48301223726792</v>
+        <v>29.00700899119788</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>44.2972294303113</v>
+        <v>29.00700903071066</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>54.99056067706977</v>
+        <v>29.0070090284626</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>60.3767234581417</v>
+        <v>29.00700904176191</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.72324426081325</v>
+        <v>29.00700896345108</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>47.19953357425159</v>
+        <v>29.00700897609892</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.66967149945166</v>
+        <v>29.00700897693515</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.6054113016749</v>
+        <v>29.00700901610013</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>52.3396557796258</v>
+        <v>29.00700901245905</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>57.74574137210941</v>
+        <v>29.00700902573354</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-0.3380331211129928</v>
+        <v>29.00700887456746</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16.86810654715488</v>
+        <v>29.00700891044609</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.30787192051403</v>
+        <v>29.00700890692904</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.00582194262614</v>
+        <v>29.00700891621288</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1.536949630425362</v>
+        <v>29.00700891646576</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.02153798902698</v>
+        <v>29.00700895476292</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>4.318910672724073</v>
+        <v>29.00700889181206</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.10029624995249</v>
+        <v>29.00700892885175</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.34343859416182</v>
+        <v>29.00700892695631</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>34.08467409938821</v>
+        <v>29.00700893652633</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>7.147212011371504</v>
+        <v>29.00700893708754</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.25245885733451</v>
+        <v>29.00700897664721</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>5.667999550341293</v>
+        <v>29.00700889622097</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.45302288860615</v>
+        <v>29.00700893304616</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.83441115324955</v>
+        <v>29.00700893143631</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.55189493638161</v>
+        <v>29.00700894096699</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>8.726074051184408</v>
+        <v>29.00700894157127</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.82317974766682</v>
+        <v>29.00700898090089</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3.542526807466533</v>
+        <v>29.00700888355799</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.35896007040053</v>
+        <v>29.00700892006723</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.73990832803378</v>
+        <v>29.00700891709672</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.45966429626745</v>
+        <v>29.00700892659637</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>6.26942207645855</v>
+        <v>29.00700892695479</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.43048000955796</v>
+        <v>29.00700896593146</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.539458944194</v>
+        <v>29.00700895076099</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.51611333030725</v>
+        <v>29.00700896354824</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.546057130388427</v>
+        <v>29.00700896453641</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.44647221021299</v>
+        <v>29.0070090020912</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.42438950317292</v>
+        <v>29.00700899882849</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.33735213855949</v>
+        <v>29.00700901224218</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.60469266626029</v>
+        <v>29.00700897429572</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.67139443270938</v>
+        <v>29.00700898746722</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14.77715160984873</v>
+        <v>29.00700898630599</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.29137771481211</v>
+        <v>29.0070090251047</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>47.18889427099175</v>
+        <v>29.00700902345476</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.17198256335942</v>
+        <v>29.00700903723344</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>37.32311525859437</v>
+        <v>29.0070089788155</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.35880105126228</v>
+        <v>29.00700899193663</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>16.4512102963068</v>
+        <v>29.00700899051321</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37.94132558956194</v>
+        <v>29.00700902909337</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.9889723791543</v>
+        <v>29.00700902769023</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>54.93380494995789</v>
+        <v>29.007009041403</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>34.98565170257352</v>
+        <v>29.0070089623763</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.03425468071639</v>
+        <v>29.00700897546044</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>13.42881098928854</v>
+        <v>29.00700897601501</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.01685104583833</v>
+        <v>29.00700901425731</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.10538035020357</v>
+        <v>29.00700901142931</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>52.06874498156664</v>
+        <v>29.00700902512345</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5.914861832317243</v>
+        <v>29.00700888474608</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.77942506232931</v>
+        <v>29.0070089207885</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.40864722321601</v>
+        <v>29.0070089175006</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.14504234727129</v>
+        <v>29.00700892681652</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8.116288673146858</v>
+        <v>29.00700892687072</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.22779527720471</v>
+        <v>29.00700896531159</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10.64985567032495</v>
+        <v>29.00700890209324</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.09688402233528</v>
+        <v>29.0070089393005</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.52938892660651</v>
+        <v>29.0070089376326</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>41.3078456982845</v>
+        <v>29.00700894722987</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>13.79707670447843</v>
+        <v>29.00700894756207</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.53596746415006</v>
+        <v>29.00700898726793</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>11.95974061788405</v>
+        <v>29.00700890639871</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.40621959452098</v>
+        <v>29.0070089433908</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.97542364114301</v>
+        <v>29.00700894200611</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.72909359439298</v>
+        <v>29.00700895156229</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>15.33292456829395</v>
+        <v>29.00700895193541</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.05968034990469</v>
+        <v>29.00700899141072</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>9.908117199549032</v>
+        <v>29.00700889381732</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.39757580620967</v>
+        <v>29.00700893049391</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.96827849440749</v>
+        <v>29.00700892775567</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>40.72610245673484</v>
+        <v>29.00700893728376</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12.96261351621965</v>
+        <v>29.0070089374255</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.76442567116007</v>
+        <v>29.00700897654906</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.06520007308121</v>
+        <v>29.00700896166484</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.02849438559367</v>
+        <v>29.00700897444946</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.0613240360261</v>
+        <v>29.00700897343366</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.52807652799743</v>
+        <v>29.00700901110513</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.72865924260148</v>
+        <v>29.0070090081108</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.64467308481888</v>
+        <v>29.00700902152842</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.20850191757911</v>
+        <v>29.00700898527035</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>49.25927672409043</v>
+        <v>29.0070089984324</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.33209641830562</v>
+        <v>29.0070089952097</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.41884211031656</v>
+        <v>29.00700903412732</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>53.53847277533062</v>
+        <v>29.00700903273802</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.52188203974026</v>
+        <v>29.00700904651423</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>44.87745750194788</v>
+        <v>29.00700898967499</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.96493434401541</v>
+        <v>29.00700899931168</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44.02393039656417</v>
+        <v>29.00700903801017</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>55.29175058688799</v>
+        <v>29.0070090368633</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>61.23578423279585</v>
+        <v>29.0070090505719</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.64265479998669</v>
+        <v>29.00700897335122</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.67573371554778</v>
+        <v>29.00700898642753</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>19.02391694571248</v>
+        <v>29.00700898493997</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.1910621881194</v>
+        <v>29.00700902330096</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.50335551759854</v>
+        <v>29.00700902074071</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>58.46761261955751</v>
+        <v>29.00700903443424</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.875095395381628</v>
+        <v>29.00700889007769</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.9765188128987</v>
+        <v>29.00700892494878</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>35.03235950061364</v>
+        <v>29.00700892111619</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.20036768524972</v>
+        <v>29.00700892968074</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.20187578298198</v>
+        <v>29.00700892953825</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.44661389404596</v>
+        <v>29.00700896678554</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.24358049658187</v>
+        <v>29.00700890608966</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.90811501478166</v>
+        <v>29.00700894208207</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.70917893767522</v>
+        <v>29.00700893973332</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.90436763591781</v>
+        <v>29.00700894855208</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>17.46625750683323</v>
+        <v>29.00700894866727</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>38.31844560732228</v>
+        <v>29.00700898713283</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>15.41756047983516</v>
+        <v>29.0070089100094</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.07368226222182</v>
+        <v>29.00700894579221</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>42.00170425631335</v>
+        <v>29.00700894371013</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>45.17274125209936</v>
+        <v>29.00700895248781</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>18.8504511170886</v>
+        <v>29.00700895264688</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.68393342202044</v>
+        <v>29.00700899088848</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>13.58178741377921</v>
+        <v>29.00700889831343</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.30192681192567</v>
+        <v>29.0070089337945</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>40.2301711271326</v>
+        <v>29.0070089304601</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>43.40634842067959</v>
+        <v>29.00700893920717</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.71621410507899</v>
+        <v>29.00700893914541</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>37.64260161549045</v>
+        <v>29.00700897705283</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>39.94879942349606</v>
+        <v>29.00700896273392</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>45.04505674769176</v>
+        <v>29.00700897446246</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>17.69296185035279</v>
+        <v>29.00700897357213</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>39.1250166656411</v>
+        <v>29.00700901006033</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>48.73313934715318</v>
+        <v>29.00700900669295</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.79863327286294</v>
+        <v>29.00700901904077</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>46.59775642011543</v>
+        <v>29.00700898460738</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>51.76077977220648</v>
+        <v>29.00700899667611</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.50507831034063</v>
+        <v>29.00700899375369</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>56.00293618864088</v>
+        <v>29.00700902957196</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>61.11439291390183</v>
+        <v>29.00700904223878</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>48.09572596136347</v>
+        <v>29.00700898860876</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>53.22873334293971</v>
+        <v>29.00700900062485</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.9790068430224</v>
+        <v>29.00700899747663</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.97961648363309</v>
+        <v>29.00700903495439</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.58027484582054</v>
+        <v>29.00700903331007</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>62.6541501303506</v>
+        <v>29.00700904590936</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>46.11685775426946</v>
+        <v>29.00700897340653</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.26308977305094</v>
+        <v>29.0070089853855</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.3091000868596</v>
+        <v>29.00700898407811</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>44.43050067014565</v>
+        <v>29.00700902123384</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>55.07638621800531</v>
+        <v>29.00700901826024</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.17044746796726</v>
+        <v>29.0070090308434</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>0.6196149083532596</v>
+        <v>29.00700887496047</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.66749687763676</v>
+        <v>29.00700890973954</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.55290963096101</v>
+        <v>29.00700890606857</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.88110511310918</v>
+        <v>29.00700891475908</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>2.884092899129563</v>
+        <v>29.00700891489419</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.20887334839167</v>
+        <v>29.00700895208722</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>4.952320218758988</v>
+        <v>29.00700889118626</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.5607113153664</v>
+        <v>29.00700892709236</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.21002203643692</v>
+        <v>29.0070089249316</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.5721757384792</v>
+        <v>29.00700893389587</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>8.17296444830161</v>
+        <v>29.00700893439233</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.10492297279975</v>
+        <v>29.00700897281346</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>6.204476658353887</v>
+        <v>29.00700889532064</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.81351956824957</v>
+        <v>29.00700893101765</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.59541520739213</v>
+        <v>29.00700892912042</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.93527992490215</v>
+        <v>29.00700893804907</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.650828213898585</v>
+        <v>29.00700893860803</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.57219062662178</v>
+        <v>29.00700897680529</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>4.282057418588348</v>
+        <v>29.00700888321446</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.93106266253142</v>
+        <v>29.0070089186033</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.71180765602333</v>
+        <v>29.00700891542077</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.05393227340961</v>
+        <v>29.00700892431088</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>7.399185121944466</v>
+        <v>29.00700892460647</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.39157959687547</v>
+        <v>29.00700896246039</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.30721866943988</v>
+        <v>29.0070089479691</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.73497818667884</v>
+        <v>29.00700895995063</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>10.15799145049892</v>
+        <v>29.00700896170951</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.84510483917573</v>
+        <v>29.00700899818522</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>40.17438302345645</v>
+        <v>29.00700899480971</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>45.54026337154423</v>
+        <v>29.00700900739404</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.99974266238559</v>
+        <v>29.00700897024679</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>41.50564243245149</v>
+        <v>29.0070089825952</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.0596598663192</v>
+        <v>29.00700898236472</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.34862278456686</v>
+        <v>29.00700902005113</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>47.55418426925889</v>
+        <v>29.00700901819503</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>52.97802298848636</v>
+        <v>29.00700903112599</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.60782447930833</v>
+        <v>29.00700897448548</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>43.08529742474829</v>
+        <v>29.0070089867875</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>17.6284225672014</v>
+        <v>29.00700898631228</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.89200425316844</v>
+        <v>29.00700902378728</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.2408142724098</v>
+        <v>29.00700902215811</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.62894894949162</v>
+        <v>29.00700903502737</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.48235944077472</v>
+        <v>29.0070089587413</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>40.97123960193722</v>
+        <v>29.00700897099665</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>14.83693635060339</v>
+        <v>29.00700897239087</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.20234290330355</v>
+        <v>29.00700900953817</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.59176213543699</v>
+        <v>29.00700900654861</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>51.99751605259367</v>
+        <v>29.00700901939</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1.482682954077013</v>
+        <v>29.00700887874657</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>19.41881717389164</v>
+        <v>29.00700891511599</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.88958530916653</v>
+        <v>29.0070089115247</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.57262237744489</v>
+        <v>29.00700892085957</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>3.246060429231552</v>
+        <v>29.00700892080806</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.45354311083744</v>
+        <v>29.00700895961628</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>6.169842679441302</v>
+        <v>29.00700889605682</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.69190073812596</v>
+        <v>29.00700893360221</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>32.96580481406946</v>
+        <v>29.00700893162979</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.69005937814597</v>
+        <v>29.0070089412483</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.882548921808141</v>
+        <v>29.00700894148754</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.72160736147297</v>
+        <v>29.00700898157323</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.507141915148949</v>
+        <v>29.0070089004224</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.02906076119591</v>
+        <v>29.00700893775019</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.4409294969676</v>
+        <v>29.00700893606309</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.14066770391759</v>
+        <v>29.00700894564096</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>10.45046489454994</v>
+        <v>29.0070089459257</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.27778212739191</v>
+        <v>29.00700898577821</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5.389592420835008</v>
+        <v>29.00700888776949</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.95444447602563</v>
+        <v>29.00700892477771</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.36586207553297</v>
+        <v>29.00700892173067</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.06854189040169</v>
+        <v>29.00700893127872</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>8.003065978409303</v>
+        <v>29.00700893132188</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.90558313112452</v>
+        <v>29.00700897081837</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.12709324640738</v>
+        <v>29.00700895564911</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>37.03695016130708</v>
+        <v>29.00700896847404</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.713504974038567</v>
+        <v>29.00700896843836</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.29335651548852</v>
+        <v>29.00700900647641</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>41.36535904405852</v>
+        <v>29.00700900320957</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>47.23882092726896</v>
+        <v>29.00700901668777</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>38.23035656077606</v>
+        <v>29.00700897925752</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.22701629801948</v>
+        <v>29.00700899246335</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.95361192871386</v>
+        <v>29.0070089902449</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>38.15792735781788</v>
+        <v>29.00700902954181</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>49.15025920449393</v>
+        <v>29.0070090278851</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>55.09041621150851</v>
+        <v>29.00700904172517</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.93307379321703</v>
+        <v>29.00700898372688</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.89813761551072</v>
+        <v>29.00700899688077</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>17.61709921238415</v>
+        <v>29.00700899440716</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.79397543327595</v>
+        <v>29.00700903348251</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>50.93571447334968</v>
+        <v>29.00700903207044</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>56.83673465505602</v>
+        <v>29.00700904584307</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.61971918708558</v>
+        <v>29.00700896729467</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>43.59768251231328</v>
+        <v>29.0070089804125</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.60093634035521</v>
+        <v>29.00700897992956</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.88614020334757</v>
+        <v>29.00700901866319</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.07101521468456</v>
+        <v>29.00700901582541</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>53.99107675671861</v>
+        <v>29.00700902958129</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>12.78414182592838</v>
+        <v>29.0070088946555</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.46256215603304</v>
+        <v>29.00700893036411</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.90960702189783</v>
+        <v>29.00700892691223</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.16215805074359</v>
+        <v>29.00700893575711</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.69528224225351</v>
+        <v>29.00700893310823</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>33.54613314398987</v>
+        <v>29.00700897121311</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>17.31269174058356</v>
+        <v>29.00700891124496</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.57260558285742</v>
+        <v>29.00700894810511</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>44.79545953435219</v>
+        <v>29.00700894617203</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.07530914751185</v>
+        <v>29.00700895528285</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>18.13125413848361</v>
+        <v>29.00700895288627</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>39.60923690487343</v>
+        <v>29.00700899224197</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>18.5015295001151</v>
+        <v>29.00700891520023</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.75290391931264</v>
+        <v>29.00700895184648</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.10675895121657</v>
+        <v>29.00700895017659</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>49.3621590608501</v>
+        <v>29.00700895924635</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.55680193327144</v>
+        <v>29.00700895693302</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>41.01588749780164</v>
+        <v>29.0070089960604</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>16.71038279940522</v>
+        <v>29.00700890310887</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.02832373806502</v>
+        <v>29.00700893944442</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.38396501833248</v>
+        <v>29.00700893649262</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.64483311584735</v>
+        <v>29.007008945528</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.4070686305077</v>
+        <v>29.00700894298558</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.96174785403088</v>
+        <v>29.00700898176891</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>41.34160020321438</v>
+        <v>29.00700896742021</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>46.52094415545088</v>
+        <v>29.00700897947473</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.69260969897972</v>
+        <v>29.0070089779826</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.7913000178007</v>
+        <v>29.00700901531541</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>50.7510187580165</v>
+        <v>29.00700901217798</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.87864257711789</v>
+        <v>29.0070090248464</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>48.21332230054145</v>
+        <v>29.00700899001361</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>53.45989783306183</v>
+        <v>29.00700900242258</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.69426652909868</v>
+        <v>29.00700899882392</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.41395652869532</v>
+        <v>29.00700903739019</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>58.26228126643333</v>
+        <v>29.00700903578094</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>63.43533879662161</v>
+        <v>29.00700904878084</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>49.75816326750292</v>
+        <v>29.00700899407726</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>54.97450084622628</v>
+        <v>29.00700900643392</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.20944437366385</v>
+        <v>29.00700900260532</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>48.89615530102029</v>
+        <v>29.00700904095575</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>59.885454663856</v>
+        <v>29.00700903957233</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>65.02055989541066</v>
+        <v>29.00700905250425</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>47.76755561802239</v>
+        <v>29.00700897838469</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>52.99669290212542</v>
+        <v>29.00700899069991</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.51636016549126</v>
+        <v>29.00700898877115</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>46.327491421068</v>
+        <v>29.0070090267911</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>57.36298928978417</v>
+        <v>29.00700902404827</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>62.51812803131968</v>
+        <v>29.00700903696023</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1.977557333434081</v>
+        <v>29.00700886667289</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.44579664256012</v>
+        <v>29.0070089007081</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.32951184635026</v>
+        <v>29.0070088961422</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.80965891991616</v>
+        <v>29.00700890469557</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-0.2613122146785933</v>
+        <v>29.00700890505209</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.37019521457934</v>
+        <v>29.00700894145734</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>2.195352167079974</v>
+        <v>29.00700888228985</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>19.16228219722006</v>
+        <v>29.00700891743922</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.76226960142532</v>
+        <v>29.00700891430529</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.28256556042829</v>
+        <v>29.00700892313054</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>4.844126466170234</v>
+        <v>29.00700892387938</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.06551962891874</v>
+        <v>29.00700896149788</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3.430358256457239</v>
+        <v>29.00700888640919</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.39908805615611</v>
+        <v>29.00700892135288</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.12908484306535</v>
+        <v>29.00700891848361</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.62735358828524</v>
+        <v>29.00700892727592</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>6.303443672482935</v>
+        <v>29.00700892808102</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.51603786005355</v>
+        <v>29.00700896547941</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1.525452037055555</v>
+        <v>29.00700887460064</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>18.53586603118938</v>
+        <v>29.00700890922925</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.25784205895472</v>
+        <v>29.00700890512277</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.75642429888349</v>
+        <v>29.00700891387726</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>4.083350645906833</v>
+        <v>29.00700891438535</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.3677145117999</v>
+        <v>29.00700895143378</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.43207281815682</v>
+        <v>29.00700893644609</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.99815089362386</v>
+        <v>29.00700894820999</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.970669658645406</v>
+        <v>29.00700895165277</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.89525333646882</v>
+        <v>29.00700898735399</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.15148188262838</v>
+        <v>29.00700898316667</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>40.69544297469541</v>
+        <v>29.00700899554506</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.87631005623709</v>
+        <v>29.00700895795998</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.52633413790582</v>
+        <v>29.00700897008899</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.6756614333276</v>
+        <v>29.00700897166194</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>33.184391947961</v>
+        <v>29.00700900855954</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.26840674594855</v>
+        <v>29.00700900581615</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>47.87745512803854</v>
+        <v>29.00700901854156</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.46496810625118</v>
+        <v>29.00700896218866</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.08703679306399</v>
+        <v>29.00700897427478</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.22357706445949</v>
+        <v>29.007008975598</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.70916593407701</v>
+        <v>29.00700901228734</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>43.93394003397172</v>
+        <v>29.00700900977076</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>49.50781956379741</v>
+        <v>29.00700902243855</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.36322611310205</v>
+        <v>29.0070089467924</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.99459652124493</v>
+        <v>29.00700895883089</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>11.48494970364325</v>
+        <v>29.00700896195152</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.07134929132366</v>
+        <v>29.00700899830568</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.32889776366159</v>
+        <v>29.00700899447569</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.91841378539827</v>
+        <v>29.00700900711398</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>3.768526515200886</v>
+        <v>29.00700887436667</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.51747705185586</v>
+        <v>29.00700890969096</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.93484726799251</v>
+        <v>29.0070089048925</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>31.21593142511955</v>
+        <v>29.00700891356935</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>6.493950668143214</v>
+        <v>29.00700891448093</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.45169153300681</v>
+        <v>29.00700895226159</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.081843453551421</v>
+        <v>29.00700889026952</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.39569951389917</v>
+        <v>29.0070089267389</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.54664565464169</v>
+        <v>29.0070089234036</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.85869104279931</v>
+        <v>29.0070089323433</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>11.72960953382849</v>
+        <v>29.00700893359115</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>32.29861764302065</v>
+        <v>29.0070089726159</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>9.297323347330607</v>
+        <v>29.00700889436544</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.6069788365818</v>
+        <v>29.00700893062219</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.88773953681054</v>
+        <v>29.00700892756251</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.17572025280938</v>
+        <v>29.00700893646225</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.15622459397475</v>
+        <v>29.00700893774949</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.71073220263608</v>
+        <v>29.00700897654695</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>7.382511443844802</v>
+        <v>29.00700888251928</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.75023494135264</v>
+        <v>29.00700891846057</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.0240227483076</v>
+        <v>29.00700891414656</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.31533427064388</v>
+        <v>29.00700892301114</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.9461714119426</v>
+        <v>29.00700892403398</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.58828374167251</v>
+        <v>29.00700896248339</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.36316521088668</v>
+        <v>29.00700894723177</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>38.62102308247085</v>
+        <v>29.007008959113</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>12.86443054757953</v>
+        <v>29.00700896107563</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.0662836944848</v>
+        <v>29.0070089981138</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.19306267118858</v>
+        <v>29.00700899391085</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>48.4190727334103</v>
+        <v>29.00700900642582</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.97912202358864</v>
+        <v>29.00700896909908</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>45.30816008937774</v>
+        <v>29.00700898133173</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>18.67772119870722</v>
+        <v>29.00700898134458</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.4851229182059</v>
+        <v>29.00700901961051</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>50.46370473984727</v>
+        <v>29.007009016898</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>55.7396533113653</v>
+        <v>29.00700902974322</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.52679724386896</v>
+        <v>29.00700897328588</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>46.8257478584948</v>
+        <v>29.00700898546648</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.19438969937373</v>
+        <v>29.00700898523074</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.97321737726395</v>
+        <v>29.00700902328119</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>52.09046931456822</v>
+        <v>29.00700902080547</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>57.32862878381542</v>
+        <v>29.00700903358361</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.45858123811693</v>
+        <v>29.00700895784876</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.76979535971176</v>
+        <v>29.00700896998556</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.45463325128216</v>
+        <v>29.00700897157481</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.34902653106904</v>
+        <v>29.00700900928992</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>49.50478301397781</v>
+        <v>29.00700900547328</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>54.7624346261615</v>
+        <v>29.00700901822916</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1.826982017294576</v>
+        <v>29.00700886568081</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.09487718771816</v>
+        <v>29.00700890059369</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.4334560341482</v>
+        <v>29.00700889576812</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.62862690070499</v>
+        <v>29.00700890437257</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1.083590868659805</v>
+        <v>29.00700890415364</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>18.05573449776564</v>
+        <v>29.0070089414924</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2.378240567162482</v>
+        <v>29.00700888145579</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>19.85478785852424</v>
+        <v>29.00700891750038</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.93095966741124</v>
+        <v>29.00700891413749</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.15774828606845</v>
+        <v>29.00700892301371</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>4.037819336395849</v>
+        <v>29.00700892314475</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.77839301939797</v>
+        <v>29.00700896171465</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>3.621225347296477</v>
+        <v>29.00700888561562</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.09841318990997</v>
+        <v>29.00700892144961</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.30590532084659</v>
+        <v>29.00700891835977</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>31.51029487499771</v>
+        <v>29.00700892719923</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.507648189824348</v>
+        <v>29.00700892739036</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.238452039917</v>
+        <v>29.00700896573526</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>1.689422107810021</v>
+        <v>29.0070088736811</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.21057324443301</v>
+        <v>29.00700890920301</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.41100628631901</v>
+        <v>29.00700890485302</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.61677705000142</v>
+        <v>29.00700891365015</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.232805677673415</v>
+        <v>29.00700891357084</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.03701133215056</v>
+        <v>29.00700895157063</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.64236681675724</v>
+        <v>29.00700893623019</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.84804130468746</v>
+        <v>29.00700894805156</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.877639525775361</v>
+        <v>29.00700895228411</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.34800847592184</v>
+        <v>29.00700898892362</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.2596661807052</v>
+        <v>29.00700898459217</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>41.39876186543293</v>
+        <v>29.0070089970156</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>31.1359874160728</v>
+        <v>29.00700895796374</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.4148678005505</v>
+        <v>29.00700897014802</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.61966001979211</v>
+        <v>29.00700897249771</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.68648750403626</v>
+        <v>29.00700901035237</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.4524264910964</v>
+        <v>29.00700900751635</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.64336314250926</v>
+        <v>29.00700902027956</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.73493889511118</v>
+        <v>29.00700896224126</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>37.98545234428701</v>
+        <v>29.00700897437714</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>14.17582802905509</v>
+        <v>29.00700897646457</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.21843373384674</v>
+        <v>29.00700901410636</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>45.12539467396783</v>
+        <v>29.0070090115082</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>50.28053350289035</v>
+        <v>29.00700902420754</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.58182936693975</v>
+        <v>29.00700894669782</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.84304856959557</v>
+        <v>29.00700895878108</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>11.38144115507968</v>
+        <v>29.00700896268539</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.52654746960101</v>
+        <v>29.00700899999628</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>42.46844557986464</v>
+        <v>29.00700899604846</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>47.64111081139803</v>
+        <v>29.00700900871715</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-6.090968627020715</v>
+        <v>29.00700886049139</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.801242098675921</v>
+        <v>29.00700889394881</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.60761519366117</v>
+        <v>29.00700888886788</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>18.62766702968682</v>
+        <v>29.00700889705984</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-4.368383144207431</v>
+        <v>29.00700889811199</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>13.66308773381218</v>
+        <v>29.00700893392652</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-2.13883159381357</v>
+        <v>29.00700887541121</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.27991482538775</v>
+        <v>29.00700890995303</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.78316275321977</v>
+        <v>29.00700890626794</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.83379480210696</v>
+        <v>29.00700891471791</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>0.4669527474640738</v>
+        <v>29.00700891613019</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.0696084194631</v>
+        <v>29.00700895312481</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.9183650304475641</v>
+        <v>29.0070088794804</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.50271300223312</v>
+        <v>29.0070089138199</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.13156843802813</v>
+        <v>29.00700891040275</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.16104464626047</v>
+        <v>29.00700891881751</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1.895818093135414</v>
+        <v>29.00700892027139</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.490752664958</v>
+        <v>29.0070089570496</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-2.871038833077748</v>
+        <v>29.00700886809495</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>13.58760163637384</v>
+        <v>29.0070089021347</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.20734621025425</v>
+        <v>29.00700889750945</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.23674587651686</v>
+        <v>29.00700890588493</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-0.3634947555549672</v>
+        <v>29.00700890706807</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.29761375660546</v>
+        <v>29.00700894351476</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>19.75180326869987</v>
+        <v>29.00700892845964</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.72536875898631</v>
+        <v>29.00700893975404</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>3.481285893900193</v>
+        <v>29.00700894509754</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.78998239018991</v>
+        <v>29.00700898024329</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.14832028414091</v>
+        <v>29.00700897572959</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.07095420428256</v>
+        <v>29.00700898762623</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.8875601856341</v>
+        <v>29.00700894910156</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.93198059996245</v>
+        <v>29.00700896074152</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>8.917919224396201</v>
+        <v>29.00700896432994</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.79320850497312</v>
+        <v>29.00700900064064</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.96234502201596</v>
+        <v>29.00700899756149</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.93577552788155</v>
+        <v>29.00700900978267</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.44099739704459</v>
+        <v>29.00700895327792</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.45846138951828</v>
+        <v>29.00700896487128</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.42924589047046</v>
+        <v>29.007008968202</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.28287192574635</v>
+        <v>29.00700900430767</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.58648410819166</v>
+        <v>29.00700900146222</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.52585208685959</v>
+        <v>29.00700901362206</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.29222218271995</v>
+        <v>29.0070089384201</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.31894061010459</v>
+        <v>29.00700894996444</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.674384514513626</v>
+        <v>29.00700895501723</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.62208986027343</v>
+        <v>29.00700899080464</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.95773132179114</v>
+        <v>29.00700898665983</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>41.91283879496002</v>
+        <v>29.00700899879161</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1.51944504607382</v>
+        <v>29.00700887594471</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.16345174028262</v>
+        <v>29.00700891246388</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.68145821938521</v>
+        <v>29.00700890894081</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.47624148855547</v>
+        <v>29.0070089184034</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>2.543871817284614</v>
+        <v>29.00700891778501</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.50167551393879</v>
+        <v>29.00700895674962</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>6.285121598680149</v>
+        <v>29.00700889355668</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.51684935845974</v>
+        <v>29.00700893125981</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.85475950393448</v>
+        <v>29.00700892938443</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.69306384079081</v>
+        <v>29.00700893913871</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.278031430147973</v>
+        <v>29.00700893881965</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.87015009715615</v>
+        <v>29.00700897907141</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>7.644298962251128</v>
+        <v>29.00700889801057</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.87899054626183</v>
+        <v>29.00700893549531</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.35890349761205</v>
+        <v>29.0070089339083</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>38.17278082862335</v>
+        <v>29.00700894362332</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>9.879465083083382</v>
+        <v>29.00700894336049</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>30.46267992040298</v>
+        <v>29.00700898337838</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>5.544893999653524</v>
+        <v>29.00700888508062</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.81431305432826</v>
+        <v>29.00700892224177</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.29216914043602</v>
+        <v>29.00700891927015</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.10877194272577</v>
+        <v>29.00700892895411</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.422937260916118</v>
+        <v>29.00700892845113</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.07358856110294</v>
+        <v>29.00700896810815</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.09360695861613</v>
+        <v>29.00700895272318</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.1704824179939</v>
+        <v>29.00700896572218</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.658068448749002</v>
+        <v>29.00700896651668</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.06593323008134</v>
+        <v>29.0070090047255</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.12518862982988</v>
+        <v>29.00700900142851</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.13556735961259</v>
+        <v>29.00700901505927</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.31388938990241</v>
+        <v>29.00700897672478</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.48146020579674</v>
+        <v>29.00700899011498</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>16.02138193459329</v>
+        <v>29.00700898871183</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.05687769002955</v>
+        <v>29.00700902818888</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.05330964932084</v>
+        <v>29.00700902652981</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>55.13409739282658</v>
+        <v>29.00700904053196</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.05830593233216</v>
+        <v>29.00700898130106</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.19431555064638</v>
+        <v>29.00700899464107</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.71903594101624</v>
+        <v>29.00700899296997</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.72941591119346</v>
+        <v>29.00700903222512</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.88012345585548</v>
+        <v>29.00700903081512</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>56.92197856389378</v>
+        <v>29.00700904475111</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.72406570804756</v>
+        <v>29.00700896453299</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.87298008878621</v>
+        <v>29.00700897783558</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.68833606238541</v>
+        <v>29.00700897818187</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.80057963820239</v>
+        <v>29.00700901709192</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.99125779495578</v>
+        <v>29.00700901423217</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.05186190686186</v>
+        <v>29.00700902814907</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>4.772460022396515</v>
+        <v>29.00700887354597</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.05334435593431</v>
+        <v>29.0070089084121</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.32424518733586</v>
+        <v>29.00700890371821</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>31.74459118208699</v>
+        <v>29.00700891241631</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>5.272951381587983</v>
+        <v>29.00700891155254</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.73795627768441</v>
+        <v>29.00700894881002</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>9.047402677877958</v>
+        <v>29.00700888935977</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.88566365847943</v>
+        <v>29.00700892536097</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.88284679230079</v>
+        <v>29.00700892210927</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.33861711616432</v>
+        <v>29.00700893107723</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.45967899172142</v>
+        <v>29.00700893056753</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.52830239039405</v>
+        <v>29.00700896905892</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>10.24384940908925</v>
+        <v>29.00700889343148</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.08020221134533</v>
+        <v>29.00700892922239</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.20650691600695</v>
+        <v>29.0070089262396</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.63881641896899</v>
+        <v>29.00700893517049</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.88641259947098</v>
+        <v>29.00700893472914</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.94287688851211</v>
+        <v>29.00700897299605</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>8.415469669492442</v>
+        <v>29.00700888159108</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.30504621855181</v>
+        <v>29.00700891706562</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.42662335911635</v>
+        <v>29.00700891283953</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.8615217632591</v>
+        <v>29.00700892173271</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>9.722348471940524</v>
+        <v>29.00700892100522</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.86137905873184</v>
+        <v>29.00700895892199</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.28129026249416</v>
+        <v>29.00700894372651</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.69733020975499</v>
+        <v>29.00700895561393</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>11.98602413164594</v>
+        <v>29.00700895809046</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.7135251838735</v>
+        <v>29.00700899462082</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.48536643985376</v>
+        <v>29.00700899037779</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.86888729351685</v>
+        <v>29.00700900288395</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.83256191383553</v>
+        <v>29.00700896546392</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>43.32529327748536</v>
+        <v>29.00700897771189</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.76107963598053</v>
+        <v>29.00700897827303</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.08670752177082</v>
+        <v>29.0070090160208</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>48.70041779308413</v>
+        <v>29.00700901324032</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>54.1400255935911</v>
+        <v>29.00700902608626</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.38403682673285</v>
+        <v>29.00700896965203</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.84748285246198</v>
+        <v>29.00700898185206</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.27817723035447</v>
+        <v>29.0070089821639</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.57752621037973</v>
+        <v>29.00700901969901</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.33070667850919</v>
+        <v>29.00700901714978</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.73350548883771</v>
+        <v>29.00700902993269</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.35428484552816</v>
+        <v>29.0070089542163</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.82878011900823</v>
+        <v>29.00700896636958</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>16.58762085920992</v>
+        <v>29.0070089684923</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>37.99767807795897</v>
+        <v>29.0070090056907</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>47.78762437565786</v>
+        <v>29.00700900181561</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.20862036143644</v>
+        <v>29.00700901457214</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>7.889410546192966</v>
+        <v>29.00700888746486</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.49262076370146</v>
+        <v>29.00700892456153</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.3833610523459</v>
+        <v>29.00700892131075</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.19822690369475</v>
+        <v>29.00700893089657</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>8.655219639134906</v>
+        <v>29.00700892946448</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.54537109386585</v>
+        <v>29.00700896900866</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>12.77433570529498</v>
+        <v>29.00700890534072</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.97922935857428</v>
+        <v>29.00700894363715</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.69913602930959</v>
+        <v>29.00700894204418</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>44.55546299353971</v>
+        <v>29.00700895191923</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.50259262133106</v>
+        <v>29.0070089507545</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.04082103953772</v>
+        <v>29.0070089916017</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.10211314788705</v>
+        <v>29.00700890970374</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.30497582859291</v>
+        <v>29.00700894777894</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>42.16575930569594</v>
+        <v>29.0070089464724</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>45.9964893003301</v>
+        <v>29.00700895630519</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.07454828894858</v>
+        <v>29.00700895520309</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>37.59911110527947</v>
+        <v>29.00700899581356</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>12.06079058801377</v>
+        <v>29.00700889676284</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.31249965043735</v>
+        <v>29.00700893451275</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>40.17454149039425</v>
+        <v>29.00700893182032</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>44.01001440255538</v>
+        <v>29.00700894162375</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13.67579895552241</v>
+        <v>29.00700894028811</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.28147277804573</v>
+        <v>29.00700898053595</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.59219492058607</v>
+        <v>29.00700896532644</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>43.6499037364598</v>
+        <v>29.00700897844496</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>14.93080956803478</v>
+        <v>29.00700897696673</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.21157485091214</v>
+        <v>29.00700901571895</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>47.67355530409067</v>
+        <v>29.00700901268788</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.67159493949723</v>
+        <v>29.00700902644474</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.9492262145228</v>
+        <v>29.0070089896087</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>51.09437968409502</v>
+        <v>29.00700900311478</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.38302207200384</v>
+        <v>29.0070089993592</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.30456085602617</v>
+        <v>29.00700903939518</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.71343524415634</v>
+        <v>29.00700903800635</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.77782008171047</v>
+        <v>29.00700905213011</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.65781199102223</v>
+        <v>29.00700899408648</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>52.77022248071592</v>
+        <v>29.00700900753914</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>23.0527160455308</v>
+        <v>29.00700900352865</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.94470553178793</v>
+        <v>29.00700904333992</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>57.50666339634868</v>
+        <v>29.00700904219691</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>63.53065640679165</v>
+        <v>29.00700905625119</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.40169803382934</v>
+        <v>29.00700897730947</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>50.52844402672595</v>
+        <v>29.00700899072714</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>20.07200903733133</v>
+        <v>29.00700898875651</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>43.07873328681738</v>
+        <v>29.00700902821997</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.68556719218044</v>
+        <v>29.00700902562875</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>60.73021347759287</v>
+        <v>29.0070090396673</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>4.366142325751632</v>
+        <v>29.00700888491562</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.02842344553584</v>
+        <v>29.00700892026581</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.72625865141405</v>
+        <v>29.00700891720929</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.49306300783468</v>
+        <v>29.0070089264042</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.070801223976265</v>
+        <v>29.00700892614532</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.00393528976041</v>
+        <v>29.00700896382903</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.123751385179425</v>
+        <v>29.00700890206958</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.36912101972539</v>
+        <v>29.00700893856172</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.88096192423839</v>
+        <v>29.00700893711342</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.6908431542392</v>
+        <v>29.00700894658842</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.78364998839181</v>
+        <v>29.00700894660788</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.34516686672177</v>
+        <v>29.00700898553225</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.45409951116878</v>
+        <v>29.00700890633775</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.70100160014983</v>
+        <v>29.00700894261906</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.35156909991478</v>
+        <v>29.00700894144931</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.13693740322514</v>
+        <v>29.00700895088454</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>13.3469529225699</v>
+        <v>29.00700895094896</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>33.89820369361828</v>
+        <v>29.0070089896474</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.381255044457561</v>
+        <v>29.00700889388634</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.66525218239459</v>
+        <v>29.0070089298587</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.31684566279169</v>
+        <v>29.00700892734799</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>39.10584688797891</v>
+        <v>29.00700893675503</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>10.93864065140733</v>
+        <v>29.00700893658871</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.55951759624441</v>
+        <v>29.00700897494166</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>33.83459953015369</v>
+        <v>29.00700896034991</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>39.86606587735174</v>
+        <v>29.0070089729813</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.45807287196479</v>
+        <v>29.00700897223431</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.79117537587663</v>
+        <v>29.00700900917039</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.03905355954578</v>
+        <v>29.00700900633398</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>50.01141598185731</v>
+        <v>29.00700901957522</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.02169713572332</v>
+        <v>29.00700898368595</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>47.14258812287626</v>
+        <v>29.00700899669343</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>18.77742401423391</v>
+        <v>29.00700899378028</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.73174905701173</v>
+        <v>29.0070090319381</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.90981691669036</v>
+        <v>29.00700903069028</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>57.95153492361106</v>
+        <v>29.0070090442895</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.72286826140721</v>
+        <v>29.00700898805966</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.81197678394257</v>
+        <v>29.00700900101659</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.43812359345614</v>
+        <v>29.00700899785467</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.36626454980677</v>
+        <v>29.00700903579779</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>53.6950724967754</v>
+        <v>29.00700903478913</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>59.69766434579446</v>
+        <v>29.00700904832279</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.4426240911675</v>
+        <v>29.00700897190939</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.54567210167217</v>
+        <v>29.00700898483284</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.45645820850394</v>
+        <v>29.00700898362399</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.48819618565976</v>
+        <v>29.00700902123638</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>50.86019402009028</v>
+        <v>29.00700901883148</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>56.88248950452741</v>
+        <v>29.00700903234886</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4.608867791503823</v>
+        <v>29.00700887663414</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.11286953069483</v>
+        <v>29.00700891347586</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.99321022048472</v>
+        <v>29.00700890914327</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.68100919149553</v>
+        <v>29.0070089184439</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>5.13434787837166</v>
+        <v>29.00700891716798</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.92888769901089</v>
+        <v>29.00700895651209</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>9.278848208072311</v>
+        <v>29.00700889376388</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.37835788008898</v>
+        <v>29.00700893180956</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.04351206440995</v>
+        <v>29.00700892903644</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.77033236250263</v>
+        <v>29.00700893862093</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.76490696912804</v>
+        <v>29.00700893766493</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.2033378034673</v>
+        <v>29.00700897831645</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>10.57800659163305</v>
+        <v>29.00700889807777</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.67491368658213</v>
+        <v>29.00700893590237</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.47923448795692</v>
+        <v>29.00700893341318</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.18089372487268</v>
+        <v>29.00700894295824</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.308893180564</v>
+        <v>29.00700894206891</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.7338399534766</v>
+        <v>29.00700898248409</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>8.586177804190346</v>
+        <v>29.00700888541454</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.74077829799513</v>
+        <v>29.00700892290158</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.53769807735112</v>
+        <v>29.00700891908395</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>39.2415809475204</v>
+        <v>29.00700892859587</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.964131911424094</v>
+        <v>29.00700892743234</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.4778960977543</v>
+        <v>29.00700896747432</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.10939713297792</v>
+        <v>29.00700895180799</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>38.91236300110314</v>
+        <v>29.00700896449147</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>11.67261199964335</v>
+        <v>29.00700896533991</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.79619682842075</v>
+        <v>29.00700900390207</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.31358993940324</v>
+        <v>29.00700899995633</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.08831507813507</v>
+        <v>29.00700901330021</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.20364888365208</v>
+        <v>29.00700897521683</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.0892052731144</v>
+        <v>29.00700898827998</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>17.9012143007349</v>
+        <v>29.00700898700866</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>40.66194666067163</v>
+        <v>29.00700902685999</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>51.08320595589161</v>
+        <v>29.00700902447921</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.91954047212273</v>
+        <v>29.00700903818281</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.88141129268212</v>
+        <v>29.00700897964856</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.73547063080725</v>
+        <v>29.00700899266123</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.53889158154155</v>
+        <v>29.00700899113035</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.27095964198662</v>
+        <v>29.0070090307577</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.84221890523726</v>
+        <v>29.0070090286197</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.63923035182675</v>
+        <v>29.00700904225706</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>39.67993226019014</v>
+        <v>29.00700896318834</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>45.5447722587635</v>
+        <v>29.00700897615929</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.63621248123346</v>
+        <v>29.0070089765866</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>39.48779440468748</v>
+        <v>29.00700901585535</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>50.09754548645135</v>
+        <v>29.0070090123118</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>55.9124016101387</v>
+        <v>29.00700902592742</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>0.687584894190568</v>
+        <v>29.00700887598984</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>17.23481479758978</v>
+        <v>29.00700891029125</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.0854609817455</v>
+        <v>29.00700890678095</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.59231327661252</v>
+        <v>29.00700891555149</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>2.467645733368826</v>
+        <v>29.00700891617091</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.25641660038313</v>
+        <v>29.00700895281354</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>5.098197246774841</v>
+        <v>29.00700889236123</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.19806634783222</v>
+        <v>29.00700892777971</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.81149130099108</v>
+        <v>29.00700892579912</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.35941735816173</v>
+        <v>29.00700893484037</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.816707029617131</v>
+        <v>29.00700893580123</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.20367611409955</v>
+        <v>29.00700897366029</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>6.371539746542357</v>
+        <v>29.00700889656542</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.47441289750515</v>
+        <v>29.00700893177869</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.22052126800916</v>
+        <v>29.00700893006815</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>34.74634338371752</v>
+        <v>29.00700893907434</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>9.316684971894286</v>
+        <v>29.00700894007976</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.69534250321612</v>
+        <v>29.00700897771882</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>4.382929406306459</v>
+        <v>29.00700888448653</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.51872950993948</v>
+        <v>29.00700891939086</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.2624629620195</v>
+        <v>29.00700891639196</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.78863483636804</v>
+        <v>29.00700892537031</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.002009362675157</v>
+        <v>29.00700892611639</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.44496330039871</v>
+        <v>29.00700896340998</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.15733750182498</v>
+        <v>29.00700894884953</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>33.86721840194828</v>
+        <v>29.00700896096336</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>9.250755935708607</v>
+        <v>29.00700896219167</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.42444713062678</v>
+        <v>29.00700899813189</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.55846333361953</v>
+        <v>29.00700899482838</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.20942936542805</v>
+        <v>29.00700900754651</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.89760915615913</v>
+        <v>29.0070089712591</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>40.69431043674997</v>
+        <v>29.00700898373772</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.19827067506719</v>
+        <v>29.00700898294082</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.96455021794088</v>
+        <v>29.00700902008047</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.96993536657858</v>
+        <v>29.00700901830008</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>51.688635468308</v>
+        <v>29.00700903136494</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.53149854219233</v>
+        <v>29.00700897556968</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>42.29927667136135</v>
+        <v>29.00700898800308</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>16.79148282313468</v>
+        <v>29.00700898695303</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.53433364189328</v>
+        <v>29.00700902388427</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.68454638273482</v>
+        <v>29.00700902233648</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>53.36726467098543</v>
+        <v>29.00700903534104</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.33265467232745</v>
+        <v>29.00700895986419</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>40.11042483644605</v>
+        <v>29.00700897226422</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.94144528986372</v>
+        <v>29.00700897307665</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.78088828209891</v>
+        <v>29.00700900967693</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>44.9689567522802</v>
+        <v>29.00700900677644</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>50.66721313980348</v>
+        <v>29.00700901976447</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2.779033954305714</v>
+        <v>29.00700888290292</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>20.2064995104036</v>
+        <v>29.00700891802118</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.79774916004333</v>
+        <v>29.00700891495268</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>31.58237115955651</v>
+        <v>29.00700892411783</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>4.416992881839541</v>
+        <v>29.00700892391297</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.11834725801895</v>
+        <v>29.00700896135792</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>7.504955846430558</v>
+        <v>29.00700889998286</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.51170125748103</v>
+        <v>29.00700893623757</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.91319648087739</v>
+        <v>29.00700893476979</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.74222202950639</v>
+        <v>29.00700894421644</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>10.0979356711694</v>
+        <v>29.00700894429656</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.4239069315283</v>
+        <v>29.00700898297677</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>8.843482099781951</v>
+        <v>29.00700890426441</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.8528620442546</v>
+        <v>29.00700894030992</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>35.39298193134098</v>
+        <v>29.00700893911899</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>39.19786140367952</v>
+        <v>29.00700894852688</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>11.66975105447385</v>
+        <v>29.00700894865203</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.98652228233361</v>
+        <v>29.00700898710795</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>6.756665470797465</v>
+        <v>29.00700889183518</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.80003596867849</v>
+        <v>29.00700892757217</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.34097205755374</v>
+        <v>29.00700892504431</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.14893529230796</v>
+        <v>29.00700893442325</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.246521626190393</v>
+        <v>29.00700893431567</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.62991302196722</v>
+        <v>29.00700897242622</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.78679966217183</v>
+        <v>29.0070089578296</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>37.8559764593581</v>
+        <v>29.0070089704329</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>10.9992793416052</v>
+        <v>29.00700897007414</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>32.11376020165189</v>
+        <v>29.00700900678186</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.20134622126721</v>
+        <v>29.00700900389897</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.20732891208873</v>
+        <v>29.00700901710643</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>38.93378983128667</v>
+        <v>29.00700898107298</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>45.09430298081924</v>
+        <v>29.0070089940543</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.29122144941202</v>
+        <v>29.00700899154627</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>39.02333670419775</v>
+        <v>29.00700902947041</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.03634582480287</v>
+        <v>29.00700902816794</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>56.11380460647236</v>
+        <v>29.00700904173545</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.64477244609918</v>
+        <v>29.00700898546162</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>46.77383959768466</v>
+        <v>29.00700899839356</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>18.9599247369305</v>
+        <v>29.00700899563468</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>40.66687803169854</v>
+        <v>29.00700903334574</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>51.83079737849623</v>
+        <v>29.00700903228142</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.86955155547531</v>
+        <v>29.00700904578455</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.34507647865929</v>
+        <v>29.0070089693402</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.4876599172033</v>
+        <v>29.00700898223775</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>15.96660600418419</v>
+        <v>29.00700898142473</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>37.7743397643238</v>
+        <v>29.00700901880544</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>48.98028865717448</v>
+        <v>29.00700901634979</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>55.03813746984777</v>
+        <v>29.00700902983538</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>8.424837463853045</v>
+        <v>29.00700888637311</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.14557285468322</v>
+        <v>29.00700892176344</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.69326912979832</v>
+        <v>29.00700891859703</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.08115114680163</v>
+        <v>29.00700892750421</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>8.980658859648951</v>
+        <v>29.00700892592764</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.92218134736861</v>
+        <v>29.00700896367985</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>12.98153068719418</v>
+        <v>29.00700890311924</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.27523339725859</v>
+        <v>29.00700893965087</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>39.61426769797775</v>
+        <v>29.00700893804877</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>43.03491102653884</v>
+        <v>29.00700894722736</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>14.46739035893606</v>
+        <v>29.00700894594724</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.02733126179875</v>
+        <v>29.00700898494065</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>14.22055179135492</v>
+        <v>29.00700890723409</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>32.51238404275305</v>
+        <v>29.00700894355353</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>40.98552277391049</v>
+        <v>29.00700894222061</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>44.38247433926772</v>
+        <v>29.00700895136038</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.94272549451312</v>
+        <v>29.00700895015251</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.48968326097282</v>
+        <v>29.00700898891906</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>12.33725358179213</v>
+        <v>29.00700889497115</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.67575427129012</v>
+        <v>29.00700893098227</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>39.14977944993352</v>
+        <v>29.00700892833642</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>42.55060027839801</v>
+        <v>29.00700893744434</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>13.70416898663678</v>
+        <v>29.00700893598959</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.32857721929963</v>
+        <v>29.0070089744124</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.73534149887018</v>
+        <v>29.00700896012298</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>42.17935154725681</v>
+        <v>29.00700897233964</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>15.21780375880483</v>
+        <v>29.00700897182189</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.48921883804184</v>
+        <v>29.0070090088235</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>46.55548054139587</v>
+        <v>29.00700900592453</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>51.93766470837315</v>
+        <v>29.00700901874772</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>43.66523384505062</v>
+        <v>29.00700898298138</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.18450812189897</v>
+        <v>29.00700899556231</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>21.29166212016608</v>
+        <v>29.00700899295483</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>43.17535036857348</v>
+        <v>29.00700903117944</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>54.14621723766868</v>
+        <v>29.00700902983888</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>59.58298468601979</v>
+        <v>29.00700904300722</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>45.27007189948766</v>
+        <v>29.00700898721061</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>50.75935178255729</v>
+        <v>29.00700899974199</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.8609760958896</v>
+        <v>29.00700899689629</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>44.7168760421394</v>
+        <v>29.00700903490625</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>55.83249634929125</v>
+        <v>29.0070090337962</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>61.23187861997284</v>
+        <v>29.00700904689987</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>43.16815647547969</v>
+        <v>29.00700897128218</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>48.67000161805924</v>
+        <v>29.00700898377486</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>20.07139849965622</v>
+        <v>29.0070089828317</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>42.0358937528644</v>
+        <v>29.007009020513</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>53.19567342101955</v>
+        <v>29.00700901802384</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>58.61390359365366</v>
+        <v>29.00700903110691</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>5.239402432359622</v>
+        <v>29.00700887931831</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.75904717954202</v>
+        <v>29.00700891606389</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>30.74247663462102</v>
+        <v>29.00700891200137</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>34.42947525252048</v>
+        <v>29.00700892127981</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>5.678426980169188</v>
+        <v>29.0070089198055</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.47011471346062</v>
+        <v>29.00700895903028</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>9.940380513190327</v>
+        <v>29.0070088965112</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.05535941169192</v>
+        <v>29.00700893445801</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>36.82583972346556</v>
+        <v>29.00700893196224</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>40.55241111311121</v>
+        <v>29.00700894152303</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>11.33214668494295</v>
+        <v>29.00700894035159</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>32.76702248326544</v>
+        <v>29.00700898088045</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>11.24329347119339</v>
+        <v>29.00700890081209</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>30.35540606979023</v>
+        <v>29.00700893853895</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>38.26469655211312</v>
+        <v>29.00700893632481</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>41.96625814742754</v>
+        <v>29.00700894584629</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>12.87890931098629</v>
+        <v>29.00700894473981</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>34.30004535061922</v>
+        <v>29.00700898503343</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>9.241252699475641</v>
+        <v>29.00700888815482</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>28.41108033518131</v>
+        <v>29.0070089255452</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>36.31382635947433</v>
+        <v>29.00700892200171</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>40.01726112330602</v>
+        <v>29.00700893149163</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>10.52675776115635</v>
+        <v>29.00700893011754</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>32.03670614291438</v>
+        <v>29.00700897003883</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>33.7351745177437</v>
+        <v>29.00700895458995</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>39.54555625342836</v>
+        <v>29.00700896726046</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>12.02930863642105</v>
+        <v>29.00700896746024</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>34.14141349258488</v>
+        <v>29.00700900589921</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>43.70392229765485</v>
+        <v>29.0070090021687</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>49.49252941489695</v>
+        <v>29.00700901549945</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>40.85327732591767</v>
+        <v>29.00700897804822</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>46.74685539747298</v>
+        <v>29.00700899109692</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>18.2746138513771</v>
+        <v>29.0070089891599</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.02298565856692</v>
+        <v>29.00700902888452</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>51.49018221406149</v>
+        <v>29.00700902672003</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>57.34122222127041</v>
+        <v>29.00700904040949</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.53322575829991</v>
+        <v>29.0070089824629</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>48.39534033107614</v>
+        <v>29.00700899546126</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>19.91547666096406</v>
+        <v>29.00700899326841</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>42.63498484987979</v>
+        <v>29.00700903277007</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>53.25209549563164</v>
+        <v>29.00700903084612</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>59.06383509772188</v>
+        <v>29.00700904446959</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>40.32527973132827</v>
+        <v>29.00700896602005</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>46.19779101518061</v>
+        <v>29.00700897897866</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>17.00678977809809</v>
+        <v>29.00700897874283</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>39.84598172802993</v>
+        <v>29.00700901788665</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>50.50194072011045</v>
+        <v>29.00700901456034</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>56.33100140208225</v>
+        <v>29.00700902816379</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.145</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.438</v>
+        <v>16.583</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.027</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.002</v>
+        <v>19.33</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.021</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.802</v>
+        <v>9.351000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.00700887901833</v>
+        <v>-9.300629834678464</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.00700891509422</v>
+        <v>11.34057349746533</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.00700891182438</v>
+        <v>18.17548437131632</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.00700892122027</v>
+        <v>21.30244206013546</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.00700892120106</v>
+        <v>-3.757714435114492</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.00700895968967</v>
+        <v>16.75853230765502</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.00700889649666</v>
+        <v>-16.5530877635439</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.00700893374216</v>
+        <v>17.49726696590265</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.00700893210657</v>
+        <v>38.25595600171796</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.00700894179175</v>
+        <v>40.39564923423413</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.00700894208601</v>
+        <v>-8.317101818764264</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.00700898184664</v>
+        <v>28.17237346638652</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.00700890089383</v>
+        <v>-22.12763088316315</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.00700893792393</v>
+        <v>14.69978188803216</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.00700893657145</v>
+        <v>37.57308266936945</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.00700894621759</v>
+        <v>40.71294765916401</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.00700894656189</v>
+        <v>-15.22022006736925</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.00700898609167</v>
+        <v>24.00860721048568</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.00700888812072</v>
+        <v>-20.75858532523515</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.00700892483167</v>
+        <v>11.026758765785</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.00700892210928</v>
+        <v>28.08705000571514</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.00700893172517</v>
+        <v>33.33041875132495</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.00700893182437</v>
+        <v>-12.99852487647265</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.00700897099721</v>
+        <v>19.02806741898744</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.00700895593999</v>
+        <v>22.71745537927982</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.00700896886644</v>
+        <v>31.47744780252565</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.00700896890722</v>
+        <v>-12.14109144877251</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.00700900664253</v>
+        <v>15.50401804906669</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.00700900357089</v>
+        <v>29.168685483628</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.0070090171204</v>
+        <v>39.51724037012206</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.00700897975865</v>
+        <v>48.04691152505666</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.00700899307381</v>
+        <v>56.13704712599342</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.00700899091972</v>
+        <v>-9.50865602479319</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.00700902990796</v>
+        <v>35.94022557039378</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.00700902845296</v>
+        <v>65.68792191742089</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.00700904237238</v>
+        <v>73.34821591758339</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.00700898426706</v>
+        <v>44.64879878876943</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.00700899753244</v>
+        <v>54.35744228909695</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.00700899511935</v>
+        <v>-15.28213931569529</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.00700903388849</v>
+        <v>33.85031902971364</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.00700903267683</v>
+        <v>64.99401482330504</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.00700904653087</v>
+        <v>73.71472057294801</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.00700896769425</v>
+        <v>32.02312200871391</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.00700898092352</v>
+        <v>44.34076767819838</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.00700898050939</v>
+        <v>-13.01022968581901</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.00700901893718</v>
+        <v>29.17193547280888</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.00700901629697</v>
+        <v>52.30952696234252</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.00700903013234</v>
+        <v>65.11843563721753</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.00700887888866</v>
+        <v>-3.15540146152216</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.00700891559663</v>
+        <v>33.14688644425225</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.00700891095483</v>
+        <v>38.4934348408169</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.00700892004301</v>
+        <v>41.67908642367659</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.0070089186181</v>
+        <v>-7.335781983484052</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.00700895782359</v>
+        <v>25.10246511393895</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.0070088955712</v>
+        <v>-11.7541360512497</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.0070089334686</v>
+        <v>37.59357702272244</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.00700893034904</v>
+        <v>56.27536398973818</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.00700893971381</v>
+        <v>58.22426941033365</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.00700893860932</v>
+        <v>-13.84131166342822</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.00700897910703</v>
+        <v>34.24058996432234</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.00700889974743</v>
+        <v>-16.89802212341412</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.00700893742394</v>
+        <v>34.84685185402297</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.00700893458416</v>
+        <v>55.62917513057838</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.00700894390775</v>
+        <v>58.49221268869014</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.00700894287553</v>
+        <v>-20.72944104740138</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.00700898313753</v>
+        <v>29.72424236828455</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.00700888738696</v>
+        <v>-13.37959624293922</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.00700892473645</v>
+        <v>33.23447747711103</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.00700892059312</v>
+        <v>48.57819351007379</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.00700892987894</v>
+        <v>53.63461676044287</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.00700892857535</v>
+        <v>-18.12191486226924</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.00700896847587</v>
+        <v>24.91223610080354</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.00700895282928</v>
+        <v>32.15076310747325</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.00700896522897</v>
+        <v>38.62515980751368</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.00700896635709</v>
+        <v>-12.57328948703889</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.00700900478554</v>
+        <v>27.12007648955544</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.00700900061672</v>
+        <v>39.46337071966107</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.00700901365834</v>
+        <v>48.3320687607941</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.0070089756849</v>
+        <v>54.29392589964648</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.00700898845387</v>
+        <v>59.77488334200228</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.00700898752257</v>
+        <v>-14.3405232220029</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.00700902722607</v>
+        <v>42.77796048550612</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.00700902460164</v>
+        <v>69.93176655820673</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.00700903798914</v>
+        <v>75.76584912712669</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.00700897997629</v>
+        <v>50.40919744823532</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.00700899269228</v>
+        <v>57.40075605045628</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.00700899150806</v>
+        <v>-20.87929385570351</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.0070090309884</v>
+        <v>39.55578454007077</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.00700902860487</v>
+        <v>67.91989029133158</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.0070090419234</v>
+        <v>74.68424775234084</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.00700896388675</v>
+        <v>38.42492448866848</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.00700897655601</v>
+        <v>48.09093993481535</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.00700897728166</v>
+        <v>-16.27009523963776</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.00700901641398</v>
+        <v>37.05741843156068</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.00700901263984</v>
+        <v>58.12539611683741</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.00700902593426</v>
+        <v>69.00543708725566</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.00700887771979</v>
+        <v>-7.004395061136389</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.00700891443064</v>
+        <v>26.57218615809422</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.00700890990696</v>
+        <v>34.23663939477761</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.00700891897799</v>
+        <v>35.90432184736362</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.00700891798217</v>
+        <v>-4.226719138949699</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.00700895721256</v>
+        <v>27.9107926421168</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.00700889442827</v>
+        <v>-13.76793566173795</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.00700893233028</v>
+        <v>33.09339423657237</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.00700892933207</v>
+        <v>54.12039965817047</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.00700893867959</v>
+        <v>54.50508354493994</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.00700893801482</v>
+        <v>-9.500206602910829</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.00700897853918</v>
+        <v>38.53041273590286</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.00700889862597</v>
+        <v>-18.33170508632361</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.00700893630758</v>
+        <v>31.01761244628899</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.00700893358797</v>
+        <v>54.14653676717594</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.00700894289445</v>
+        <v>55.42787802683704</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.00700894229889</v>
+        <v>-15.73456803361603</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.00700898258781</v>
+        <v>34.7496833951623</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.00700888623219</v>
+        <v>-15.94824575237744</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.00700892358603</v>
+        <v>28.13560682463125</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.00700891956128</v>
+        <v>45.88007968510749</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.00700892882961</v>
+        <v>49.34371907602524</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.00700892796258</v>
+        <v>-13.44989039012635</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.00700896788976</v>
+        <v>29.51634091981871</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.00700895236569</v>
+        <v>36.54825685539727</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.00700896474513</v>
+        <v>40.70108500941096</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.00700896598286</v>
+        <v>-10.86755600542847</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.00700900444186</v>
+        <v>28.89620261818465</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.00700900040384</v>
+        <v>42.4528714559986</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.00700901342646</v>
+        <v>48.83708142789447</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.00700897527036</v>
+        <v>60.19088479588207</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.00700898801848</v>
+        <v>63.25936658011261</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.00700898719686</v>
+        <v>-11.15815185486206</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.00700902693247</v>
+        <v>46.2873672492637</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.00700902444423</v>
+        <v>74.65544090052094</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.00700903781257</v>
+        <v>77.92766445936461</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.00700897957925</v>
+        <v>57.07109336243542</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.00700899227425</v>
+        <v>61.62091365811399</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.00700899119788</v>
+        <v>-17.02597753617744</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.00700903071066</v>
+        <v>43.8164678186811</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.0070090284626</v>
+        <v>73.42343902955605</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.00700904176191</v>
+        <v>77.60141387705971</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.00700896345108</v>
+        <v>44.74797984032369</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.00700897609892</v>
+        <v>51.96864222576905</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.00700897693515</v>
+        <v>-12.99278117081198</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.00700901610013</v>
+        <v>40.63649745424686</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.00700901245905</v>
+        <v>63.049763804002</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.00700902573354</v>
+        <v>71.32865530471625</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.00700887456746</v>
+        <v>-6.531030736620069</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.00700891044609</v>
+        <v>10.18344128322246</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.00700890692904</v>
+        <v>16.38830006982602</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.00700891621288</v>
+        <v>19.27656693858503</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.00700891646576</v>
+        <v>-2.148082876282967</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.00700895476292</v>
+        <v>13.74849270253038</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.00700889181206</v>
+        <v>-13.9590909024982</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.00700892885175</v>
+        <v>15.76944416552435</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.00700892695631</v>
+        <v>35.53141287609721</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.00700893652633</v>
+        <v>37.57769561445001</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.00700893708754</v>
+        <v>-7.375431660224013</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.00700897664721</v>
+        <v>24.00269125732644</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.00700889622097</v>
+        <v>-19.40925871577581</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.00700893304616</v>
+        <v>13.04169923206477</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.00700893143631</v>
+        <v>34.81175082169751</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.00700894096699</v>
+        <v>37.84618237091664</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.00700894157127</v>
+        <v>-14.21066973039956</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.00700898090089</v>
+        <v>19.85103616830656</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.00700888355799</v>
+        <v>-17.85566896025149</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.00700892006723</v>
+        <v>9.741787348357549</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.00700891709672</v>
+        <v>25.83302522269786</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.00700892659637</v>
+        <v>30.79350898880944</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.00700892695479</v>
+        <v>-11.5978644788503</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.00700896593146</v>
+        <v>15.52287184129336</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.00700895076099</v>
+        <v>18.71913806094667</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.00700896354824</v>
+        <v>26.86260622775567</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.00700896453641</v>
+        <v>-8.551836327973202</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.0070090020912</v>
+        <v>14.45445934612129</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.00700899882849</v>
+        <v>26.10119583812049</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.00700901224218</v>
+        <v>36.06564118847562</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.00700897429572</v>
+        <v>42.57258290684581</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.00700898746722</v>
+        <v>50.14668363568424</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.00700898630599</v>
+        <v>-6.731029498681671</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.0070090251047</v>
+        <v>33.5497600764506</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.00700902345476</v>
+        <v>60.96497178048219</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.00700903723344</v>
+        <v>68.36345376471044</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.0070089788155</v>
+        <v>39.12286849466707</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.00700899193663</v>
+        <v>48.27789393483089</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.00700899051321</v>
+        <v>-12.58362545085335</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.00700902909337</v>
+        <v>31.30390573166122</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.00700902769023</v>
+        <v>60.06421401063868</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.007009041403</v>
+        <v>68.48657810028034</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.0070089623763</v>
+        <v>27.27435468302166</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.00700897546044</v>
+        <v>38.8684293895892</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.00700897601501</v>
+        <v>-9.865827012382127</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.00700901425731</v>
+        <v>27.32976631212313</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.00700901142931</v>
+        <v>48.2285934524531</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.00700902512345</v>
+        <v>60.54514192692854</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00700888474608</v>
+        <v>-4.905362299000917</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.0070089207885</v>
+        <v>25.96876387390818</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.0070089175006</v>
+        <v>34.4324141077711</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.00700892681652</v>
+        <v>36.86418437474196</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.00700892687072</v>
+        <v>0.3487517936897486</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.00700896531159</v>
+        <v>29.85683558400455</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.00700890209324</v>
+        <v>-10.3420652632859</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.0070089393005</v>
+        <v>34.0426374245996</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.0070089376326</v>
+        <v>56.54955131480251</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.00700894722987</v>
+        <v>57.88635320628939</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.00700894756207</v>
+        <v>-3.77856706573248</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.00700898726793</v>
+        <v>41.68417934958547</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.00700890639871</v>
+        <v>-14.88911311202166</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.0070089433908</v>
+        <v>32.2552964537845</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.00700894200611</v>
+        <v>56.90626559874369</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.00700895156229</v>
+        <v>59.16664534246847</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.00700895193541</v>
+        <v>-9.944398531891494</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.00700899141072</v>
+        <v>38.25512569925335</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.00700889381732</v>
+        <v>-13.25892623034017</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.00700893049391</v>
+        <v>28.90312421597951</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.00700892775567</v>
+        <v>47.56296029730397</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.00700893728376</v>
+        <v>51.91512085749393</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.0070089374255</v>
+        <v>-6.940964873172806</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.00700897654906</v>
+        <v>34.20767696611564</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.00700896166484</v>
+        <v>40.46092567588123</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.00700897444946</v>
+        <v>47.07502193147126</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.00700897343366</v>
+        <v>-11.33928816207205</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.00700901110513</v>
+        <v>24.15284538120252</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.0070090081108</v>
+        <v>40.07019376217548</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.00700902152842</v>
+        <v>49.00699812736713</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.00700898527035</v>
+        <v>66.38166024253167</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.0070089984324</v>
+        <v>72.12262519363991</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.0070089952097</v>
+        <v>-9.691392192763622</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.00700903412732</v>
+        <v>43.54277378688627</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.00700903273802</v>
+        <v>75.59570361091234</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.00700904651423</v>
+        <v>81.65600151014212</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.00700898967499</v>
+        <v>63.73485669105943</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.00700899931168</v>
+        <v>-15.05048986799978</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.00700903801017</v>
+        <v>41.8368502151652</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.0070090368633</v>
+        <v>75.32020238786217</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.0070090505719</v>
+        <v>82.32238765713595</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.00700897335122</v>
+        <v>51.822301791803</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.00700898642753</v>
+        <v>61.69443997386618</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.00700898493997</v>
+        <v>-10.969239243282</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.00700902330096</v>
+        <v>39.09331977664171</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.00700902074071</v>
+        <v>64.49536703728401</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.00700903443424</v>
+        <v>75.57012183665405</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.00700889007769</v>
+        <v>-10.49406563031134</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.00700892494878</v>
+        <v>30.20087000433269</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.00700892111619</v>
+        <v>37.66358621484751</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.00700892968074</v>
+        <v>38.84149073516622</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.00700892953825</v>
+        <v>-6.223934835297431</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.00700896678554</v>
+        <v>33.95582057720021</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.00700890608966</v>
+        <v>-17.79480423286768</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.00700894208207</v>
+        <v>35.36387531027644</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.00700893973332</v>
+        <v>55.85185854060857</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.00700894855208</v>
+        <v>55.75367234018951</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.00700894866727</v>
+        <v>-11.43582369578574</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.00700898713283</v>
+        <v>43.6439442982827</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.0070089100094</v>
+        <v>-22.06596000347225</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.00700894579221</v>
+        <v>33.50436070128166</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.00700894371013</v>
+        <v>56.10291714393772</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.00700895248781</v>
+        <v>56.76135194324156</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.00700895264688</v>
+        <v>-17.24705592318923</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.00700899088848</v>
+        <v>40.23799018853954</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.00700889831343</v>
+        <v>-17.78585955586374</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.0070089337945</v>
+        <v>33.24833101646796</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.0070089304601</v>
+        <v>50.44436694996024</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.00700893920717</v>
+        <v>53.09126108686815</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.00700893914541</v>
+        <v>-13.70536961724675</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.00700897705283</v>
+        <v>37.1687362443603</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.00700896273392</v>
+        <v>44.67696342131624</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.00700897446246</v>
+        <v>48.70127708298338</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.00700897357213</v>
+        <v>-13.9566469609924</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.00700901006033</v>
+        <v>31.38589165087423</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.00700900669295</v>
+        <v>44.98450005511074</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.00700901904077</v>
+        <v>51.52738193090651</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.00700898460738</v>
+        <v>67.2122844655733</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.00700899667611</v>
+        <v>70.14053780764627</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.00700899375369</v>
+        <v>-15.47284269629877</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.00700902957196</v>
+        <v>74.53904041594384</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.00700904223878</v>
+        <v>78.07315580442699</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.00700898860876</v>
+        <v>64.50234013150245</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.00700900062485</v>
+        <v>68.72342930801832</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.00700899747663</v>
+        <v>-20.95187844888884</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.00700903495439</v>
+        <v>44.2389847441318</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.00700903331007</v>
+        <v>73.63011361345082</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.00700904590936</v>
+        <v>77.90047270887528</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.00700897340653</v>
+        <v>54.27359531391852</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.0070089853855</v>
+        <v>60.94122387265736</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.00700898407811</v>
+        <v>-14.79731257594978</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.00700902123384</v>
+        <v>44.03987228905986</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.00700901826024</v>
+        <v>66.2668296053622</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.0070090308434</v>
+        <v>74.31448182905207</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.00700887496047</v>
+        <v>-11.44438627664609</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.00700890973954</v>
+        <v>5.267766308866559</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.00700890606857</v>
+        <v>14.29351131967356</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.00700891475908</v>
+        <v>16.1147809991538</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.00700891489419</v>
+        <v>-2.83028951782887</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.00700895208722</v>
+        <v>17.55884422460045</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.00700889118626</v>
+        <v>-21.26887527103607</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.00700892709236</v>
+        <v>7.673938817689628</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.0070089249316</v>
+        <v>29.46456656882605</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.00700893389587</v>
+        <v>30.29277161563977</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.00700893439233</v>
+        <v>-7.909685914673609</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.00700897281346</v>
+        <v>27.37288194123923</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.00700889532064</v>
+        <v>-27.28776020656594</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.00700893101765</v>
+        <v>4.114409471050779</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.00700892912042</v>
+        <v>27.92876064829759</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.00700893804907</v>
+        <v>29.66276369431393</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.00700893860803</v>
+        <v>-14.75984398638052</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.00700897680529</v>
+        <v>22.92882209366111</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.00700888321446</v>
+        <v>-24.00598555200055</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.0070089186033</v>
+        <v>2.728409209736991</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.00700891542077</v>
+        <v>21.55788575844154</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.00700892431088</v>
+        <v>25.1927877297573</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.00700892460647</v>
+        <v>-12.73163647490531</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.00700896246039</v>
+        <v>18.07086785979834</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.0070089479691</v>
+        <v>23.3856823418552</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.00700895995063</v>
+        <v>30.71967662315859</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.00700896170951</v>
+        <v>-9.41899255612876</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.00700899818522</v>
+        <v>19.26816042997637</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.00700899480971</v>
+        <v>31.60573440199874</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.00700900739404</v>
+        <v>39.91768220443974</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.00700897024679</v>
+        <v>45.65718867712931</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.0070089825952</v>
+        <v>52.35695060002683</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.00700898236472</v>
+        <v>-7.629256811172212</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.00700902005113</v>
+        <v>37.71369739149608</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.00700901819503</v>
+        <v>64.39481275964093</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.00700903112599</v>
+        <v>70.14670918740774</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.00700897448548</v>
+        <v>41.89922696367039</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.0070089867875</v>
+        <v>50.10384393353699</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.00700898631228</v>
+        <v>-13.35463202176981</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.00700902378728</v>
+        <v>35.33073545285801</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.00700902215811</v>
+        <v>63.24269701027228</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.00700903502737</v>
+        <v>69.96418295655162</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.0070089587413</v>
+        <v>30.45369547742735</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.00700897099665</v>
+        <v>40.95564772184091</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.00700897239087</v>
+        <v>-10.97390383844128</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.00700900953817</v>
+        <v>31.13739283855757</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.00700900654861</v>
+        <v>52.15874693865376</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.00700901939</v>
+        <v>62.56378435568085</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00700887874657</v>
+        <v>-19.24087887417073</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.00700891511599</v>
+        <v>1.191219316680979</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.0070089115247</v>
+        <v>8.499555859585334</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.00700892085957</v>
+        <v>11.96532567898453</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.00700892080806</v>
+        <v>-18.02250623717939</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.00700895961628</v>
+        <v>0.7094973297838649</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.00700889605682</v>
+        <v>-27.82617254468999</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.00700893360221</v>
+        <v>5.769735606545925</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.00700893162979</v>
+        <v>26.7291890643689</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.0070089412483</v>
+        <v>29.20340439234544</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.00700894148754</v>
+        <v>-25.42145900227857</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.00700898157323</v>
+        <v>8.923943803528884</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.0070089004224</v>
+        <v>-33.22897642688532</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.00700893775019</v>
+        <v>3.091761899504597</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.00700893606309</v>
+        <v>26.10396836656762</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.00700894564096</v>
+        <v>29.5274988061472</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.0070089459257</v>
+        <v>-32.38619169025024</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.00700898577821</v>
+        <v>4.651709713036777</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.00700888776949</v>
+        <v>-30.76786144489328</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.00700892477771</v>
+        <v>0.6352635125570867</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.00700892173067</v>
+        <v>17.89473686186571</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.00700893127872</v>
+        <v>23.35443429510145</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.00700893132188</v>
+        <v>-28.48605576420086</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.00700897081837</v>
+        <v>1.54651903696549</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.00700895564911</v>
+        <v>8.944840522843776</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.00700896847404</v>
+        <v>16.76849608631804</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.00700896843836</v>
+        <v>-23.5284500785708</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.00700900647641</v>
+        <v>2.030391646266583</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.00700900320957</v>
+        <v>15.18809428977207</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.00700901668777</v>
+        <v>26.03383094976513</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.00700897925752</v>
+        <v>30.83668363913049</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.00700899246335</v>
+        <v>37.92640041840565</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.0070089902449</v>
+        <v>-24.60634874406058</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.00700902954181</v>
+        <v>18.37858537869456</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.0070090278851</v>
+        <v>47.20568859278573</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.00700904172517</v>
+        <v>55.33316497351889</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.00700898372688</v>
+        <v>27.26862544094949</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.00700899688077</v>
+        <v>35.89984138660596</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.00700899440716</v>
+        <v>-30.68901672954712</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.00700903348251</v>
+        <v>15.90983455472011</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.00700903207044</v>
+        <v>46.06770690870017</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.00700904584307</v>
+        <v>55.17536028152487</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.00700896729467</v>
+        <v>16.54883725123999</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.0070089804125</v>
+        <v>27.72187039134225</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.00700897992956</v>
+        <v>-25.94127929605534</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.00700901866319</v>
+        <v>13.8764759202442</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.00700901582541</v>
+        <v>36.19767650331929</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.00700902958129</v>
+        <v>49.30683002058627</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.0070088946555</v>
+        <v>-4.140326526041955</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.00700893036411</v>
+        <v>38.76864698050408</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.00700892691223</v>
+        <v>49.28756321548921</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.00700893575711</v>
+        <v>50.86298458843525</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.00700893310823</v>
+        <v>-12.63884949692846</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.00700897121311</v>
+        <v>26.65492523128136</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.00700891124496</v>
+        <v>-11.96967174122183</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.00700894810511</v>
+        <v>43.95736617721688</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.00700894617203</v>
+        <v>68.03987691726022</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.00700895528285</v>
+        <v>68.19188104215766</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.00700895288627</v>
+        <v>-17.9469985462314</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.00700899224197</v>
+        <v>36.86331329700933</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.00700891520023</v>
+        <v>-16.69991006094688</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.00700895184648</v>
+        <v>41.7505518376428</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.00700895017659</v>
+        <v>68.0545087089194</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.00700895924635</v>
+        <v>68.9944720101534</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.00700895693302</v>
+        <v>-23.93392201323188</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.0070089960604</v>
+        <v>33.4039672769316</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.00700890310887</v>
+        <v>-13.45937306900942</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.00700893944442</v>
+        <v>40.17179272913035</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.00700893649262</v>
+        <v>61.04792602130216</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.007008945528</v>
+        <v>64.12590484799937</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.00700894298558</v>
+        <v>-21.38623963547596</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.00700898176891</v>
+        <v>29.00574613641967</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.00700896742021</v>
+        <v>37.70597567812285</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.00700897947473</v>
+        <v>42.04186088645152</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.0070089779826</v>
+        <v>-19.32975408637341</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.00700901531541</v>
+        <v>26.42661001633205</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.00700901217798</v>
+        <v>42.4949550230594</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.0070090248464</v>
+        <v>49.06729357462866</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.00700899001361</v>
+        <v>61.16041666385124</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.00700900242258</v>
+        <v>64.28442836989282</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.00700899882392</v>
+        <v>-20.46708359991722</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.00700903739019</v>
+        <v>42.60160382479943</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.00700903578094</v>
+        <v>73.50978151909081</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.00700904878084</v>
+        <v>76.86368794097257</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.00700899407726</v>
+        <v>58.48717569572227</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.00700900643392</v>
+        <v>62.96372967355114</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.00700900260532</v>
+        <v>-25.97617258242505</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.00700904095575</v>
+        <v>40.55394218365163</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.00700903957233</v>
+        <v>72.80350576901394</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.00700905250425</v>
+        <v>76.93303981878651</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.00700897838469</v>
+        <v>46.92620726489986</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.00700899069991</v>
+        <v>54.000650691606</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.00700898877115</v>
+        <v>-20.98698632995887</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.0070090267911</v>
+        <v>38.83754060182011</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.00700902404827</v>
+        <v>63.96520956393853</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.00700903696023</v>
+        <v>72.10390269962873</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.00700886667289</v>
+        <v>-10.14841586274823</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.0070089007081</v>
+        <v>2.116230514131704</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.0070088961422</v>
+        <v>5.18235282389097</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.00700890469557</v>
+        <v>8.869017547540883</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.00700890505209</v>
+        <v>-5.780659023086109</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.00700894145734</v>
+        <v>7.773886613259238</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.00700888228985</v>
+        <v>-17.69559683886415</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.00700891743922</v>
+        <v>6.684056030342923</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.00700891430529</v>
+        <v>21.8363206003886</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.00700892313054</v>
+        <v>24.70993081640592</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.00700892387938</v>
+        <v>-9.452515534739881</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.00700896149788</v>
+        <v>18.85020958352484</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.00700888640919</v>
+        <v>-23.58339110580207</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.00700892135288</v>
+        <v>3.039283196674932</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.00700891848361</v>
+        <v>20.04269568635821</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.00700892727592</v>
+        <v>23.94570183930956</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.00700892808102</v>
+        <v>-16.77653457630873</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.00700896547941</v>
+        <v>13.70388455689443</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.00700887460064</v>
+        <v>-22.51208128951468</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.00700890922925</v>
+        <v>-0.9911033841746022</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.00700890512277</v>
+        <v>11.17737625604379</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.00700891387726</v>
+        <v>17.08496232280604</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.00700891438535</v>
+        <v>-17.56903515197129</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.00700895143378</v>
+        <v>5.521197575684877</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.00700893644609</v>
+        <v>8.857173698957141</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.00700894820999</v>
+        <v>17.77093610272868</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.00700895165277</v>
+        <v>-9.955789816927606</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.00700898735399</v>
+        <v>10.85631057328601</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.00700898316667</v>
+        <v>18.53858996951984</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.00700899554506</v>
+        <v>29.33248002078338</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.00700895795998</v>
+        <v>31.64842873536607</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.00700897008899</v>
+        <v>40.13843917931258</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.00700897166194</v>
+        <v>-7.021123375866065</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.00700900855954</v>
+        <v>30.19390163295674</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.00700900581615</v>
+        <v>51.49200945897415</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.00700901854156</v>
+        <v>60.01901552329412</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.00700896218866</v>
+        <v>27.01457070756879</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.00700897427478</v>
+        <v>37.15277223977532</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.007008975598</v>
+        <v>-13.47757681909624</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.00700901228734</v>
+        <v>26.81595053794827</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.00700900977076</v>
+        <v>49.13980256281583</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.00700902243855</v>
+        <v>58.81196714595768</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.0070089467924</v>
+        <v>12.46912459359384</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.00700895883089</v>
+        <v>25.0028243887174</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.00700896195152</v>
+        <v>-14.04512111729403</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.00700899830568</v>
+        <v>19.20672926195626</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.00700899447569</v>
+        <v>34.77535443552598</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.00700900711398</v>
+        <v>48.2046380539074</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.00700887436667</v>
+        <v>-19.71387958732263</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.00700890969096</v>
+        <v>10.31677168152296</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.0070089048925</v>
+        <v>15.53119877550282</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.00700891356935</v>
+        <v>16.88385219986075</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.00700891448093</v>
+        <v>-5.569358188357974</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.00700895226159</v>
+        <v>25.09665727379662</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.00700889026952</v>
+        <v>-26.49063527041157</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.0070089267389</v>
+        <v>16.20432397921682</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.0070089234036</v>
+        <v>34.13557596481274</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.0070089323433</v>
+        <v>34.34490327495276</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.00700893359115</v>
+        <v>-11.14481653075182</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.0070089726159</v>
+        <v>34.71533307905393</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.00700889436544</v>
+        <v>-30.67973716216937</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.00700893062219</v>
+        <v>14.37462769685561</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.00700892756251</v>
+        <v>34.27167930548075</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.00700893646225</v>
+        <v>35.35522826152399</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.00700893774949</v>
+        <v>-17.21545116899678</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.00700897654695</v>
+        <v>30.9586402414707</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.00700888251928</v>
+        <v>-27.39765629500948</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.00700891846057</v>
+        <v>12.64949666688667</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.00700891414656</v>
+        <v>27.29781051878616</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.00700892301114</v>
+        <v>30.42289057926466</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.00700892403398</v>
+        <v>-14.07802950604225</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.00700896248339</v>
+        <v>26.89452464439571</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.00700894723177</v>
+        <v>33.41913982217586</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.007008959113</v>
+        <v>37.35490793249632</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.00700896107563</v>
+        <v>-10.78251748917524</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.0070089981138</v>
+        <v>26.87692315830648</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.00700899391085</v>
+        <v>38.68872294301158</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.00700900642582</v>
+        <v>45.04792334983183</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.00700896909908</v>
+        <v>55.52409326344785</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.00700898133173</v>
+        <v>58.49269225659732</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.00700898134458</v>
+        <v>-11.61389794998169</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.00700901961051</v>
+        <v>42.91441443256929</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.007009016898</v>
+        <v>69.04063276653153</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.00700902974322</v>
+        <v>72.49558986216036</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.00700897328588</v>
+        <v>52.3339458200154</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.00700898546648</v>
+        <v>56.73325065048999</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.00700898523074</v>
+        <v>-17.43480587746386</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.00700902328119</v>
+        <v>40.30100275671793</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.00700902080547</v>
+        <v>67.58686433385829</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.00700903358361</v>
+        <v>71.91852516167738</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.00700895784876</v>
+        <v>41.33599271654615</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.00700896998556</v>
+        <v>48.25690510939651</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.00700897157481</v>
+        <v>-12.5525245271541</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.00700900928992</v>
+        <v>38.30166092290575</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.00700900547328</v>
+        <v>58.50291849185442</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.00700901822916</v>
+        <v>66.71167852306104</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.00700886568081</v>
+        <v>-6.182694396325354</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.00700890059369</v>
+        <v>8.52241807619648</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.00700889576812</v>
+        <v>13.09707965262067</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.00700890437257</v>
+        <v>15.48696510937287</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.00700890415364</v>
+        <v>-8.715904693480674</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.0070089414924</v>
+        <v>4.424375143661953</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.00700888145579</v>
+        <v>-15.68646258950872</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.00700891750038</v>
+        <v>11.00402850512113</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.00700891413749</v>
+        <v>27.90535853448974</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.00700892301371</v>
+        <v>29.49112380494013</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.00700892314475</v>
+        <v>-16.16745747690317</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.00700896171465</v>
+        <v>11.47380689418629</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.00700888561562</v>
+        <v>-21.22606229894747</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.00700892144961</v>
+        <v>7.777636033219361</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.00700891835977</v>
+        <v>26.55278202581709</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.00700892719923</v>
+        <v>29.09118280651024</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.00700892739036</v>
+        <v>-23.19160141918873</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.00700896573526</v>
+        <v>6.714436453368469</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.0070088736811</v>
+        <v>-18.70432624504109</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.00700890920301</v>
+        <v>5.568449744284154</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.00700890485302</v>
+        <v>19.36750819611273</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.00700891365015</v>
+        <v>23.70781468487016</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.00700891357084</v>
+        <v>-20.72808693231764</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.00700895157063</v>
+        <v>2.257619409412444</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.00700893623019</v>
+        <v>7.574530399526809</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.00700894805156</v>
+        <v>14.06209350413209</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.00700895228411</v>
+        <v>-9.712791149896258</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.00700898892362</v>
+        <v>12.4367671715863</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.00700898459217</v>
+        <v>20.71749163898545</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.0070089970156</v>
+        <v>28.48395985876579</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.00700895796374</v>
+        <v>26.62831410053121</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.00700897014802</v>
+        <v>32.60221028169949</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.00700897249771</v>
+        <v>-11.08113791903894</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.00700901035237</v>
+        <v>27.29850404907741</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.00700900751635</v>
+        <v>49.53642498514823</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.00700902027956</v>
+        <v>54.81675925677607</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.00700896224126</v>
+        <v>22.39118685410246</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.00700897437714</v>
+        <v>29.89102903897281</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.00700897646457</v>
+        <v>-17.59903610883139</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.00700901410636</v>
+        <v>23.96949839496392</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.0070090115082</v>
+        <v>47.30881339879916</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.00700902420754</v>
+        <v>53.56276099719287</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.00700894669782</v>
+        <v>11.35478305740751</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.00700895878108</v>
+        <v>21.06142038260498</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.00700896268539</v>
+        <v>-14.44437403575972</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.00700899999628</v>
+        <v>20.54708201592254</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.00700899604846</v>
+        <v>37.00314849726172</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.00700900871715</v>
+        <v>46.85297940991217</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.00700886049139</v>
+        <v>-10.10188064707626</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.00700889394881</v>
+        <v>-2.50208556747975</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.00700888886788</v>
+        <v>-0.2511365385936184</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.00700889705984</v>
+        <v>1.431703329649125</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.00700889811199</v>
+        <v>-10.15285366325614</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.00700893392652</v>
+        <v>-2.781567601447222</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.00700887541121</v>
+        <v>-20.63789254275918</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.00700890995303</v>
+        <v>-1.757015740924981</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.00700890626794</v>
+        <v>12.00801082732589</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.00700891471791</v>
+        <v>13.03302904297965</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.00700891613019</v>
+        <v>-18.96392822281657</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.00700895312481</v>
+        <v>2.106383808550165</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.0070088794804</v>
+        <v>-26.19641173520979</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.0070089138199</v>
+        <v>-5.128444274907034</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.00700891040275</v>
+        <v>10.34406173419421</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.00700891881751</v>
+        <v>12.31492691555184</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.00700892027139</v>
+        <v>-26.05629860932419</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.0070089570496</v>
+        <v>-2.863607322476104</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.00700886809495</v>
+        <v>-22.26530145034094</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.0070089021347</v>
+        <v>-5.690692278613781</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.00700889750945</v>
+        <v>5.215577089142736</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.00700890588493</v>
+        <v>8.836213309343753</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.00700890706807</v>
+        <v>-22.1697117167463</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.00700894351476</v>
+        <v>-5.584210754193316</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.00700892845964</v>
+        <v>-0.5717314223717089</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.00700893975404</v>
+        <v>4.622997767706801</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.00700894509754</v>
+        <v>-8.838720325220088</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.00700898024329</v>
+        <v>7.112886949808882</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.00700897572959</v>
+        <v>13.6601871498297</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.00700898762623</v>
+        <v>20.6397151982774</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.00700894910156</v>
+        <v>15.63481203125306</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.00700896074152</v>
+        <v>20.41331043017613</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.00700896432994</v>
+        <v>-11.5569974399714</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.00700900064064</v>
+        <v>19.72320557060199</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.00700899756149</v>
+        <v>39.55458578670653</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.00700900978267</v>
+        <v>44.24294965526339</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.00700895327792</v>
+        <v>11.08625564506443</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.00700896487128</v>
+        <v>17.36347461629615</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.007008968202</v>
+        <v>-18.21785923285572</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.00700900430767</v>
+        <v>16.06005187382415</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.00700900146222</v>
+        <v>36.88856633842251</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.00700901362206</v>
+        <v>42.5447507489816</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.0070089384201</v>
+        <v>2.186395499967405</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.00700894996444</v>
+        <v>10.53772784318055</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.00700895501723</v>
+        <v>-13.82212124297541</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.00700899080464</v>
+        <v>14.19522754763512</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.00700898665983</v>
+        <v>28.49377880840422</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.00700899879161</v>
+        <v>37.54965899563004</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.00700887594471</v>
+        <v>1.066543352878202</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.00700891246388</v>
+        <v>20.824427267037</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.00700890894081</v>
+        <v>27.0961927418141</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.0070089184034</v>
+        <v>30.15338969828906</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.00700891778501</v>
+        <v>-7.0230687549371</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.00700895674962</v>
+        <v>10.46183038320242</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.00700889355668</v>
+        <v>-4.466704083754614</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.00700893125981</v>
+        <v>28.61055523492719</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.00700892938443</v>
+        <v>49.0143939242958</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.00700893913871</v>
+        <v>51.06643608577888</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.00700893881965</v>
+        <v>-10.81683093459107</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.00700897907141</v>
+        <v>22.49820447380403</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.00700889801057</v>
+        <v>-9.815160478110322</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.00700893549531</v>
+        <v>25.99966673849864</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.0070089339083</v>
+        <v>48.54905037928845</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.00700894362332</v>
+        <v>51.5986336288793</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.00700894336049</v>
+        <v>-17.44231910757101</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.00700898337838</v>
+        <v>18.59129943438475</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.00700888508062</v>
+        <v>-10.73972224474372</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.00700892224177</v>
+        <v>20.04319272010898</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.00700891927015</v>
+        <v>36.5225667447564</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.00700892895411</v>
+        <v>41.68892538985055</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.00700892845113</v>
+        <v>-16.73430998780093</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.00700896810815</v>
+        <v>12.15667375842166</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.00700895272318</v>
+        <v>15.057799227437</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.00700896572218</v>
+        <v>22.55513728546359</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.00700896651668</v>
+        <v>-10.82150454522045</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.0070090047255</v>
+        <v>14.49343362594552</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.00700900142851</v>
+        <v>26.22597312512517</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.00700901505927</v>
+        <v>35.15923644874513</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.00700897672478</v>
+        <v>41.15946323649521</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.00700899011498</v>
+        <v>47.93651653434696</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.00700898871183</v>
+        <v>-7.428245090626081</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.00700902818888</v>
+        <v>35.57092598117793</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.00700902652981</v>
+        <v>63.52612183994783</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.00700904053196</v>
+        <v>69.70123087234801</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.00700898130106</v>
+        <v>38.05196351833128</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.00700899464107</v>
+        <v>46.43769550657105</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.00700899296997</v>
+        <v>-13.05480639367457</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.00700903222512</v>
+        <v>33.60987396911717</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.00700903081512</v>
+        <v>62.99533923076994</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.00700904475111</v>
+        <v>70.21752754484162</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.00700896453299</v>
+        <v>23.74079513109812</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.00700897783558</v>
+        <v>34.74733501091462</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.00700897818187</v>
+        <v>-12.32114271781931</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.00700901709192</v>
+        <v>27.44559871795806</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.00700901423217</v>
+        <v>48.60066079637031</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.00700902814907</v>
+        <v>59.92746054074139</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.00700887354597</v>
+        <v>3.208512927537722</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.0070089084121</v>
+        <v>32.23366459300469</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.00700890371821</v>
+        <v>37.46000789550921</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.00700891241631</v>
+        <v>40.90869189484862</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.00700891155254</v>
+        <v>-3.607562204905008</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.00700894881002</v>
+        <v>22.48050393760835</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.00700888935977</v>
+        <v>-4.601863331342607</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.00700892536097</v>
+        <v>36.88619982438107</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.00700892210927</v>
+        <v>54.81819446866633</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.00700893107723</v>
+        <v>57.23093371986468</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.00700893056753</v>
+        <v>-9.431805547260019</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.00700896905892</v>
+        <v>31.6557104343478</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.00700889343148</v>
+        <v>-9.819056802831021</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.00700892922239</v>
+        <v>33.91453395249922</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.0070089262396</v>
+        <v>53.75246272618953</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.00700893517049</v>
+        <v>57.12031840977701</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.00700893472914</v>
+        <v>-16.37457336473275</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.00700897299605</v>
+        <v>26.91064781628061</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.00700888159108</v>
+        <v>-7.211563373417585</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.00700891706562</v>
+        <v>31.46087543683587</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.00700891283953</v>
+        <v>45.96173289220606</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.00700892173271</v>
+        <v>51.41484433970286</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.00700892100522</v>
+        <v>-14.60702425777321</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.00700895892199</v>
+        <v>21.36283771059423</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.00700894372651</v>
+        <v>27.77357494711486</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.00700895561393</v>
+        <v>34.55222527505406</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.00700895809046</v>
+        <v>-11.30340356569118</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.00700899462082</v>
+        <v>21.9470270160169</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.00700899037779</v>
+        <v>33.04405167982634</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.00700900288395</v>
+        <v>42.11181221769931</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.00700896546392</v>
+        <v>49.29341227167367</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.00700897771189</v>
+        <v>55.28601224107817</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.00700897827303</v>
+        <v>-11.91946800109325</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.0070090160208</v>
+        <v>38.00273570901774</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.00700901324032</v>
+        <v>63.30803183269922</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.00700902608626</v>
+        <v>69.65993182359992</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.00700896965203</v>
+        <v>45.0661078452238</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.00700898185206</v>
+        <v>52.60791243826888</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.0070089821639</v>
+        <v>-18.43695151024233</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.00700901969901</v>
+        <v>34.58394834811639</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.00700901714978</v>
+        <v>60.96186162408523</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.00700902993269</v>
+        <v>68.32379963925071</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.0070089542163</v>
+        <v>32.56216191016228</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.00700896636958</v>
+        <v>42.67287006304345</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.0070089684923</v>
+        <v>-15.33886958701401</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.0070090056907</v>
+        <v>30.70772204972987</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.00700900181561</v>
+        <v>49.88322677977851</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.00700901457214</v>
+        <v>61.19455278890801</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.00700888746486</v>
+        <v>-8.613181467558803</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.00700892456153</v>
+        <v>25.72029431895434</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.00700892131075</v>
+        <v>33.36093640881128</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.00700893089657</v>
+        <v>36.39733258362803</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.00700892946448</v>
+        <v>-9.9509941531227</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.00700896900866</v>
+        <v>20.95304627310764</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.00700890534072</v>
+        <v>-15.2900295437164</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.00700894363715</v>
+        <v>32.93050800903895</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.00700894204418</v>
+        <v>54.99247547006137</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.00700895191923</v>
+        <v>56.79616381978651</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.0070089507545</v>
+        <v>-14.82354409583194</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.0070089916017</v>
+        <v>32.49512905785551</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.00700890970374</v>
+        <v>-20.28566607377257</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.00700894777894</v>
+        <v>30.75010080316899</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.0070089464724</v>
+        <v>55.05583176311865</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.00700895630519</v>
+        <v>57.8001472029086</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.00700895520309</v>
+        <v>-21.35059324473596</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.00700899581356</v>
+        <v>28.77270441594505</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.00700889676284</v>
+        <v>-18.61433025354377</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.00700893451275</v>
+        <v>27.26443850223877</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.00700893182032</v>
+        <v>45.52535534259643</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.00700894162375</v>
+        <v>50.51529919686892</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.00700894028811</v>
+        <v>-18.73522221533781</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.00700898053595</v>
+        <v>24.07871713927573</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.00700896532644</v>
+        <v>29.19710916301192</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.00700897844496</v>
+        <v>36.68219298809459</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.00700897696673</v>
+        <v>-18.28861968193837</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.00700901571895</v>
+        <v>19.02871758581233</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.00700901268788</v>
+        <v>34.33725426531349</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.00700902644474</v>
+        <v>43.95045914105215</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.0070089896087</v>
+        <v>55.1062700414278</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.00700900311478</v>
+        <v>61.61052870256923</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.0070089993592</v>
+        <v>-17.25277472814842</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.00700903939518</v>
+        <v>38.3451612072393</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.00700903800635</v>
+        <v>70.0445036967544</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.00700905213011</v>
+        <v>76.59792870901833</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.00700899408648</v>
+        <v>52.21018396815408</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.00700900753914</v>
+        <v>60.26184395238833</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.00700900352865</v>
+        <v>-22.95424252190266</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.00700904333992</v>
+        <v>36.4031004543529</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.00700904219691</v>
+        <v>69.56564131802365</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.00700905625119</v>
+        <v>77.08172258428624</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.00700897730947</v>
+        <v>39.57662963347455</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.00700899072714</v>
+        <v>50.41035588676418</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.00700898875651</v>
+        <v>-19.19866470535296</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.00700902821997</v>
+        <v>33.0734142046753</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.00700902562875</v>
+        <v>58.11276698672262</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.0070090396673</v>
+        <v>69.9133758877494</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.00700888491562</v>
+        <v>2.436059584568754</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.00700892026581</v>
+        <v>28.98618122720418</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.00700891720929</v>
+        <v>37.64213469617228</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.0070089264042</v>
+        <v>40.23581159111271</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.00700892614532</v>
+        <v>0.096964891369133</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.00700896382903</v>
+        <v>23.89107949585799</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.00700890206958</v>
+        <v>-3.724507439462167</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.00700893856172</v>
+        <v>36.08265798680854</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.00700893711342</v>
+        <v>58.6938476314848</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.00700894658842</v>
+        <v>60.23374321296205</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.00700894660788</v>
+        <v>-4.860712166523459</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.00700898553225</v>
+        <v>34.57133297075637</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.00700890633775</v>
+        <v>-8.35135038449242</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.00700894261906</v>
+        <v>34.22294230968389</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.00700894144931</v>
+        <v>58.93301365271319</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.00700895088454</v>
+        <v>61.40483125542357</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.00700895094896</v>
+        <v>-10.98630080294452</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.0070089896474</v>
+        <v>31.18901650519855</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.00700889388634</v>
+        <v>-6.85747731110945</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.0070089298587</v>
+        <v>30.85231912501976</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.00700892734799</v>
+        <v>49.62486077198093</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.00700893675503</v>
+        <v>54.15306272912359</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.00700893658871</v>
+        <v>-7.769308663040796</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.00700897494166</v>
+        <v>27.52309773160768</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.00700896034991</v>
+        <v>32.26671843816356</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.0070089729813</v>
+        <v>39.76230928671424</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.00700897223431</v>
+        <v>-8.580686454066715</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.00700900917039</v>
+        <v>21.66119321464809</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.00700900633398</v>
+        <v>37.07998836729719</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.00700901957522</v>
+        <v>46.24813801613193</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.00700898368595</v>
+        <v>56.94189517183047</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.00700899669343</v>
+        <v>63.61719955650097</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.00700899378028</v>
+        <v>-6.893791060655488</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.0070090319381</v>
+        <v>40.76759836621812</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.00700903069028</v>
+        <v>72.25612795306061</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.0070090442895</v>
+        <v>78.61843690721535</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.00700898805966</v>
+        <v>54.34700545694743</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.00700900101659</v>
+        <v>62.53485702722249</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.00700899785467</v>
+        <v>-12.06755838098591</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.00700903579779</v>
+        <v>39.24450452143321</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.00700903478913</v>
+        <v>72.14611275178646</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.00700904832279</v>
+        <v>79.46979483314122</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.00700897190939</v>
+        <v>42.88542444857097</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.00700898483284</v>
+        <v>53.67018194940506</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.00700898362399</v>
+        <v>-8.651809735403031</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.00700902123638</v>
+        <v>35.98772582683775</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.00700901883148</v>
+        <v>60.82506374496562</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.00700903234886</v>
+        <v>72.19466913435349</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.00700887663414</v>
+        <v>-6.172940775965767</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.00700891347586</v>
+        <v>25.18263826609272</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.00700890914327</v>
+        <v>30.35794338914757</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.0070089184439</v>
+        <v>33.10786479224598</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.00700891716798</v>
+        <v>-9.934317621007466</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.00700895651209</v>
+        <v>18.69953580307924</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.00700889376388</v>
+        <v>-10.43399373655027</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.00700893180956</v>
+        <v>34.73174423511921</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.00700892903644</v>
+        <v>53.60701445452255</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.00700893862093</v>
+        <v>55.05951455854333</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.00700893766493</v>
+        <v>-13.03712754910343</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.00700897831645</v>
+        <v>32.02909621230618</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.00700889807777</v>
+        <v>-15.09692202041624</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.00700893590237</v>
+        <v>32.61183348060559</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.00700893341318</v>
+        <v>53.65327558024488</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.00700894295824</v>
+        <v>56.09031443870447</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.00700894206891</v>
+        <v>-19.48896327888664</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.00700898248409</v>
+        <v>28.09391072152412</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.00700888541454</v>
+        <v>-15.42593324511568</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.00700892290158</v>
+        <v>26.55297852065327</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.00700891908395</v>
+        <v>41.9159345068038</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.00700892859587</v>
+        <v>46.78405702501939</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.00700892743234</v>
+        <v>-19.63161343314124</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.00700896747432</v>
+        <v>19.94940820782345</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.00700895180799</v>
+        <v>23.22224900362923</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.00700896449147</v>
+        <v>28.63833988193758</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.00700896533991</v>
+        <v>-17.71817853895764</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.00700900390207</v>
+        <v>17.31034464146817</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.00700899995633</v>
+        <v>27.89560808680233</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.00700901330021</v>
+        <v>36.0654823025406</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.00700897521683</v>
+        <v>49.84784990672277</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.00700898827998</v>
+        <v>54.21696162402321</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.00700898700866</v>
+        <v>-15.43324397758752</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.00700902685999</v>
+        <v>37.81037802902694</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.00700902447921</v>
+        <v>63.5355866701199</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.00700903818281</v>
+        <v>68.67146700388163</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.00700897964856</v>
+        <v>46.62703912700877</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.00700899266123</v>
+        <v>52.60518705925824</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.00700899113035</v>
+        <v>-21.41278536573947</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.0070090307577</v>
+        <v>35.285361177639</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.0070090286197</v>
+        <v>62.28822631772172</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.00700904225706</v>
+        <v>68.47878562233026</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.00700896318834</v>
+        <v>31.12697117506512</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.00700897615929</v>
+        <v>40.04008103453672</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.0070089765866</v>
+        <v>-20.3697798189713</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.00700901585535</v>
+        <v>28.60188387413432</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.0070090123118</v>
+        <v>48.08825200500555</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.00700902592742</v>
+        <v>58.66085838099173</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.00700887598984</v>
+        <v>-7.740256245886023</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.00700891029125</v>
+        <v>7.101112175348637</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.00700890678095</v>
+        <v>12.82931741868177</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.00700891555149</v>
+        <v>16.16800791474835</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.00700891617091</v>
+        <v>-5.566825771423098</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.00700895281354</v>
+        <v>11.25425872948291</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.00700889236123</v>
+        <v>-15.31470256241751</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.00700892777971</v>
+        <v>12.10055718445245</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.00700892579912</v>
+        <v>30.53521187142258</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.00700893484037</v>
+        <v>32.94230234837769</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.00700893580123</v>
+        <v>-8.948441980572056</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.00700897366029</v>
+        <v>23.04089929961098</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.00700889656542</v>
+        <v>-21.03332457006</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.00700893177869</v>
+        <v>8.935703791975818</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.00700893006815</v>
+        <v>29.27369200172755</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.00700893907434</v>
+        <v>32.66665443740247</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.00700894007976</v>
+        <v>-15.6171870749144</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.00700897771882</v>
+        <v>18.88686115896746</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.00700888448653</v>
+        <v>-18.64484065957999</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.00700891939086</v>
+        <v>6.47746893656247</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.00700891639196</v>
+        <v>21.71555678926966</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00700892537031</v>
+        <v>27.19118085555539</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.00700892611639</v>
+        <v>-13.90115179942241</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.00700896340998</v>
+        <v>13.58552357175738</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.00700894884953</v>
+        <v>14.32381356299058</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.00700896096336</v>
+        <v>23.50599696260787</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.00700896219167</v>
+        <v>-12.66697883226518</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.00700899813189</v>
+        <v>11.30130375826567</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.00700899482838</v>
+        <v>20.23947740135599</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.00700900754651</v>
+        <v>31.01296500993237</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.0070089712591</v>
+        <v>38.77008007682165</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.00700898373772</v>
+        <v>47.373444833847</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.00700898294082</v>
+        <v>-8.682416878002982</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.00700902008047</v>
+        <v>32.20580076310662</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.00700901830008</v>
+        <v>55.87092269349954</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.00700903136494</v>
+        <v>64.15063336231272</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.00700897556968</v>
+        <v>35.25237508185958</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.00700898800308</v>
+        <v>45.44948668956116</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.00700898695303</v>
+        <v>-14.39117136830718</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.00700902388427</v>
+        <v>29.92271529998576</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.00700902233648</v>
+        <v>54.79985524743606</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.00700903534104</v>
+        <v>64.14431258887585</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.00700895986419</v>
+        <v>23.10696444860329</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.00700897226422</v>
+        <v>35.84179502624272</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.00700897307665</v>
+        <v>-13.60349812291053</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.00700900967693</v>
+        <v>23.9363487426152</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.00700900677644</v>
+        <v>41.52523779843778</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.00700901976447</v>
+        <v>54.81896400391278</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.00700888290292</v>
+        <v>-5.915716287607284</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.00700891802118</v>
+        <v>17.22388459325874</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.00700891495268</v>
+        <v>24.39831299361546</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.00700892411783</v>
+        <v>27.73367472953161</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.00700892391297</v>
+        <v>-8.328871963994899</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.00700896135792</v>
+        <v>12.38523568413819</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.00700889998286</v>
+        <v>-11.89083542779065</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.00700893623757</v>
+        <v>24.44051207501646</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.00700893476979</v>
+        <v>45.37758238328576</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.00700894421644</v>
+        <v>47.73212258777953</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.00700894429656</v>
+        <v>-12.95235873582952</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.00700898297677</v>
+        <v>23.34872649929246</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.00700890426441</v>
+        <v>-16.44644823151839</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.00700894030992</v>
+        <v>22.65451420794864</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.00700893911899</v>
+        <v>45.65586024390806</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.00700894852688</v>
+        <v>48.96000659398238</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.00700894865203</v>
+        <v>-18.99728664583172</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.00700898710795</v>
+        <v>20.0464360518293</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.00700889183518</v>
+        <v>-15.26679704584178</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.00700892757217</v>
+        <v>18.95546351869073</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.00700892504431</v>
+        <v>36.13519068281954</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.00700893442325</v>
+        <v>41.47204212409099</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.00700893431567</v>
+        <v>-16.1528014506542</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.00700897242622</v>
+        <v>15.98063149869415</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.0070089578296</v>
+        <v>18.49759057903032</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.0070089704329</v>
+        <v>27.34393343702808</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.00700897007414</v>
+        <v>-18.11472857612441</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.00700900678186</v>
+        <v>9.262766071069152</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.00700900389897</v>
+        <v>22.53767548500161</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.00700901710643</v>
+        <v>32.88225779967306</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.00700898107298</v>
+        <v>43.24432384922202</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.0070089940543</v>
+        <v>51.37500244086139</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.00700899154627</v>
+        <v>-15.81822472306601</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.00700902947041</v>
+        <v>28.92957267189797</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.00700902816794</v>
+        <v>58.09193838518893</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.00700904173545</v>
+        <v>65.74126560740949</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.00700898546162</v>
+        <v>40.71101391821659</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.00700899839356</v>
+        <v>50.37503647930345</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.00700899563468</v>
+        <v>-20.83038207587181</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.00700903334574</v>
+        <v>27.5682563715096</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.00700903228142</v>
+        <v>58.12341217192886</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.00700904578455</v>
+        <v>66.75970709227722</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.0070089693402</v>
+        <v>29.00130673822726</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.00700898223775</v>
+        <v>41.22276705393247</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.00700898142473</v>
+        <v>-18.03637879495491</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.00700901880544</v>
+        <v>23.66464184811014</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.00700901634979</v>
+        <v>46.2592471777191</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.00700902983538</v>
+        <v>58.90398482047833</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.00700888637311</v>
+        <v>0.6795150640991441</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.00700892176344</v>
+        <v>33.72570251933744</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.00700891859703</v>
+        <v>45.64668297339573</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.00700892750421</v>
+        <v>46.04331613887729</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.00700892592764</v>
+        <v>-5.108603540428073</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.00700896367985</v>
+        <v>24.93923831148776</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.00700890311924</v>
+        <v>-8.137070000846606</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.00700893965087</v>
+        <v>37.75851478172954</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.00700893804877</v>
+        <v>63.43027001326334</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.00700894722736</v>
+        <v>62.58134987470362</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.00700894594724</v>
+        <v>-11.44266447359272</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.00700898494065</v>
+        <v>33.89698502356524</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.00700890723409</v>
+        <v>-13.16793832857839</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.00700894355353</v>
+        <v>35.31794259667694</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.00700894222061</v>
+        <v>63.17921972710282</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.00700895136038</v>
+        <v>63.17521165468525</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.00700895015251</v>
+        <v>-17.52620256230041</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.00700898891906</v>
+        <v>30.38901942754791</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.00700889497115</v>
+        <v>-10.16135393824677</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.00700893098227</v>
+        <v>33.63882363027028</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.00700892833642</v>
+        <v>55.90461958310098</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.00700893744434</v>
+        <v>57.90414867069232</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.00700893598959</v>
+        <v>-14.06994166826629</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.0070089744124</v>
+        <v>27.11855506164998</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.00700896012298</v>
+        <v>35.49189280510859</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.00700897233964</v>
+        <v>39.79164432725103</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.00700897182189</v>
+        <v>-13.73903852083973</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.0070090088235</v>
+        <v>22.98885931106122</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.00700900592453</v>
+        <v>39.38260238668474</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.00700901874772</v>
+        <v>45.47163358065471</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.00700898298138</v>
+        <v>57.95406736328136</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.00700899556231</v>
+        <v>61.2525040824302</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.00700899295483</v>
+        <v>-14.07576145239756</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.00700903117944</v>
+        <v>39.75252168963075</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.00700902983888</v>
+        <v>71.49066079661398</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>29.00700904300722</v>
+        <v>74.60121506301093</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.00700898721061</v>
+        <v>55.26526055599309</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.00700899974199</v>
+        <v>59.98716134731438</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.00700899689629</v>
+        <v>-19.4665430739466</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>29.00700903490625</v>
+        <v>37.87112938079233</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>29.0070090337962</v>
+        <v>70.97884788721083</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>29.00700904689987</v>
+        <v>74.96113254295108</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>29.00700897128218</v>
+        <v>44.66238003272416</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.00700898377486</v>
+        <v>51.86107660039799</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.0070089828317</v>
+        <v>-15.54101799773082</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.007009020513</v>
+        <v>35.29448750731653</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>29.00700901802384</v>
+        <v>60.90180839951704</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.00700903110691</v>
+        <v>68.78541123726882</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>29.00700887931831</v>
+        <v>-8.171678374584705</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.00700891606389</v>
+        <v>23.42817075835989</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.00700891200137</v>
+        <v>29.44024114152721</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>29.00700892127981</v>
+        <v>32.21146535188346</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.0070089198055</v>
+        <v>-10.21447516911235</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>29.00700895903028</v>
+        <v>18.72695856958931</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.0070088965112</v>
+        <v>-11.89804831699049</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.00700893445801</v>
+        <v>33.54736520980773</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.00700893196224</v>
+        <v>53.1260366089568</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.00700894152303</v>
+        <v>54.60454305229921</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.00700894035159</v>
+        <v>-13.25536579512475</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.00700898088045</v>
+        <v>32.11650422129792</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.00700890081209</v>
+        <v>-16.27672388223417</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.00700893853895</v>
+        <v>31.74474633226207</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>29.00700893632481</v>
+        <v>53.47925240744501</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.00700894584629</v>
+        <v>55.94463258427471</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.00700894473981</v>
+        <v>-19.47894304675114</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.00700898503343</v>
+        <v>28.4453776536109</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.00700888815482</v>
+        <v>-16.79354867126465</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.0070089255452</v>
+        <v>25.52440825227457</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.00700892200171</v>
+        <v>41.76759022880479</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.00700893149163</v>
+        <v>46.66709739825087</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.00700893011754</v>
+        <v>-19.36489917282753</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.00700897003883</v>
+        <v>20.61795021583238</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.00700895458995</v>
+        <v>23.46880981089791</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.00700896726046</v>
+        <v>29.40884106584413</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.00700896746024</v>
+        <v>-19.20675642158669</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.00700900589921</v>
+        <v>15.82528998874809</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.0070090021687</v>
+        <v>26.17003775864782</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.00700901549945</v>
+        <v>34.8575861290686</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>29.00700897804822</v>
+        <v>50.06725311150933</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.00700899109692</v>
+        <v>54.95807995174503</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.0070089891599</v>
+        <v>-16.75851026653687</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.00700902888452</v>
+        <v>36.50203145262433</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>29.00700902672003</v>
+        <v>61.90847656909148</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>29.00700904040949</v>
+        <v>67.56059137536509</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.0070089824629</v>
+        <v>47.12617983310606</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>29.00700899546126</v>
+        <v>53.61188987562877</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.00700899326841</v>
+        <v>-22.49716425592688</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.00700903277007</v>
+        <v>34.2502988824041</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>29.00700903084612</v>
+        <v>60.95475326259286</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>29.00700904446959</v>
+        <v>67.65159869185131</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.00700896602005</v>
+        <v>32.0999733780418</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.00700897897866</v>
+        <v>41.52261127633436</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.00700897874283</v>
+        <v>-21.38671547871999</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.00700901788665</v>
+        <v>27.66323105999315</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>29.00700901456034</v>
+        <v>46.98895251600952</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>29.00700902816379</v>
+        <v>58.08176739009744</v>
       </c>
     </row>
   </sheetData>
